--- a/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6247044062305918</v>
+        <v>0.6247044062306202</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2020288367141774</v>
+        <v>0.2020288367143905</v>
       </c>
       <c r="E2">
-        <v>0.2601626050977615</v>
+        <v>0.2601626050977899</v>
       </c>
       <c r="F2">
         <v>4.428416966242196</v>
@@ -433,13 +433,13 @@
         <v>0.4837702392605365</v>
       </c>
       <c r="I2">
-        <v>0.09739985257687067</v>
+        <v>0.09739985257686712</v>
       </c>
       <c r="J2">
-        <v>3.286553872908172</v>
+        <v>3.286553872908229</v>
       </c>
       <c r="K2">
-        <v>1.256334939443391</v>
+        <v>1.256334939443377</v>
       </c>
       <c r="L2">
         <v>1.312132589552874</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5402355189138461</v>
+        <v>0.5402355189136756</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -459,7 +459,7 @@
         <v>0.1717892736972999</v>
       </c>
       <c r="E3">
-        <v>0.2236675257786942</v>
+        <v>0.2236675257786658</v>
       </c>
       <c r="F3">
         <v>3.838958950779386</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.479591127558308</v>
+        <v>0.4795911275583222</v>
       </c>
       <c r="I3">
-        <v>0.0865420172605802</v>
+        <v>0.08654201726057309</v>
       </c>
       <c r="J3">
         <v>2.807170382623738</v>
@@ -480,7 +480,7 @@
         <v>1.072470966143882</v>
       </c>
       <c r="L3">
-        <v>1.123543364684274</v>
+        <v>1.123543364684259</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4889243784340209</v>
+        <v>0.4889243784339072</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1542557359874195</v>
+        <v>0.1542557359873058</v>
       </c>
       <c r="E4">
-        <v>0.2020316664909956</v>
+        <v>0.2020316664909885</v>
       </c>
       <c r="F4">
-        <v>3.495069807776503</v>
+        <v>3.495069807776474</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0.4789132105496705</v>
       </c>
       <c r="I4">
-        <v>0.08006333551283618</v>
+        <v>0.08006333551284683</v>
       </c>
       <c r="J4">
-        <v>2.521409462398921</v>
+        <v>2.521409462398964</v>
       </c>
       <c r="K4">
-        <v>0.9633895425899226</v>
+        <v>0.9633895425899084</v>
       </c>
       <c r="L4">
-        <v>1.011009834452857</v>
+        <v>1.011009834452864</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4681268322391503</v>
+        <v>0.4681268322391077</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1473273666611163</v>
+        <v>0.1473273666610027</v>
       </c>
       <c r="E5">
-        <v>0.1933698166806863</v>
+        <v>0.1933698166806579</v>
       </c>
       <c r="F5">
         <v>3.358769184580609</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.479062624736514</v>
+        <v>0.4790626247364997</v>
       </c>
       <c r="I5">
-        <v>0.0774599770067681</v>
+        <v>0.07745997700678231</v>
       </c>
       <c r="J5">
-        <v>2.406723688885407</v>
+        <v>2.406723688885378</v>
       </c>
       <c r="K5">
-        <v>0.9197300195548905</v>
+        <v>0.9197300195548763</v>
       </c>
       <c r="L5">
-        <v>0.9658284471630978</v>
+        <v>0.9658284471630836</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,31 +570,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1461888673684655</v>
+        <v>0.1461888673687639</v>
       </c>
       <c r="E6">
-        <v>0.1919398558304479</v>
+        <v>0.1919398558304763</v>
       </c>
       <c r="F6">
-        <v>3.336349830898826</v>
+        <v>3.336349830898797</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.4791118362544182</v>
+        <v>0.4791118362544324</v>
       </c>
       <c r="I6">
-        <v>0.0770296373605337</v>
+        <v>0.07702963736053547</v>
       </c>
       <c r="J6">
-        <v>2.387776363430504</v>
+        <v>2.387776363430476</v>
       </c>
       <c r="K6">
-        <v>0.9125238324945002</v>
+        <v>0.912523832494486</v>
       </c>
       <c r="L6">
-        <v>0.9583632134430857</v>
+        <v>0.9583632134430715</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4886434743168593</v>
+        <v>0.4886434743168024</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1541614724056615</v>
+        <v>0.1541614724056473</v>
       </c>
       <c r="E7">
-        <v>0.2019142695539244</v>
+        <v>0.2019142695538605</v>
       </c>
       <c r="F7">
-        <v>3.493216922422846</v>
+        <v>3.493216922422903</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.4789135620314653</v>
+        <v>0.4789135620314724</v>
       </c>
       <c r="I7">
-        <v>0.08002808948829809</v>
+        <v>0.08002808948829099</v>
       </c>
       <c r="J7">
-        <v>2.519856104095965</v>
+        <v>2.519856104095993</v>
       </c>
       <c r="K7">
         <v>0.9627977297594583</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5954473224390142</v>
+        <v>0.5954473224390711</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1913593529554731</v>
+        <v>0.1913593529556294</v>
       </c>
       <c r="E8">
         <v>0.247392959690302</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.4819055633248084</v>
+        <v>0.4819055633248226</v>
       </c>
       <c r="I8">
-        <v>0.09361007361118112</v>
+        <v>0.09361007361117757</v>
       </c>
       <c r="J8">
-        <v>3.119223487748286</v>
+        <v>3.119223487748314</v>
       </c>
       <c r="K8">
-        <v>1.192038741962648</v>
+        <v>1.192038741962662</v>
       </c>
       <c r="L8">
-        <v>1.246336871748028</v>
+        <v>1.246336871748042</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8107333334508837</v>
+        <v>0.81073333345077</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2749259693558201</v>
+        <v>0.2749259693557775</v>
       </c>
       <c r="E9">
         <v>0.3449296182751027</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.5054258424365585</v>
+        <v>0.5054258424365727</v>
       </c>
       <c r="I9">
-        <v>0.1223390034747105</v>
+        <v>0.1223390034747354</v>
       </c>
       <c r="J9">
-        <v>4.384588997571285</v>
+        <v>4.384588997571342</v>
       </c>
       <c r="K9">
         <v>1.681057203374536</v>
       </c>
       <c r="L9">
-        <v>1.742790470776299</v>
+        <v>1.742790470776313</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -722,31 +722,31 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3472187692569975</v>
+        <v>0.3472187692571822</v>
       </c>
       <c r="E10">
-        <v>0.4258084567111453</v>
+        <v>0.4258084567111311</v>
       </c>
       <c r="F10">
-        <v>7.192584583518453</v>
+        <v>7.192584583518425</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.5381901101350124</v>
+        <v>0.5381901101350053</v>
       </c>
       <c r="I10">
-        <v>0.1458509351948862</v>
+        <v>0.1458509351949324</v>
       </c>
       <c r="J10">
-        <v>5.408757580303643</v>
+        <v>5.408757580303671</v>
       </c>
       <c r="K10">
-        <v>2.081051595917415</v>
+        <v>2.081051595917401</v>
       </c>
       <c r="L10">
-        <v>2.142300812921391</v>
+        <v>2.142300812921405</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.051806547181485</v>
+        <v>1.051806547181371</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3839149608080135</v>
+        <v>0.3839149608076298</v>
       </c>
       <c r="E11">
-        <v>0.4659740383729414</v>
+        <v>0.4659740383729201</v>
       </c>
       <c r="F11">
         <v>7.873968278539564</v>
@@ -775,16 +775,16 @@
         <v>0.5579362631429277</v>
       </c>
       <c r="I11">
-        <v>0.1574479723624407</v>
+        <v>0.1574479723624229</v>
       </c>
       <c r="J11">
-        <v>5.907936493975939</v>
+        <v>5.907936493976024</v>
       </c>
       <c r="K11">
-        <v>2.277185807972316</v>
+        <v>2.277185807972344</v>
       </c>
       <c r="L11">
-        <v>2.336099406133783</v>
+        <v>2.336099406133798</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.081280364043948</v>
+        <v>1.081280364044005</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3985335077268957</v>
+        <v>0.3985335077269383</v>
       </c>
       <c r="E12">
-        <v>0.4818370882499394</v>
+        <v>0.4818370882498897</v>
       </c>
       <c r="F12">
-        <v>8.143490463114347</v>
+        <v>8.143490463114375</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.5662832806775526</v>
+        <v>0.5662832806775668</v>
       </c>
       <c r="I12">
-        <v>0.1620159992664263</v>
+        <v>0.1620159992664654</v>
       </c>
       <c r="J12">
-        <v>6.103270916665167</v>
+        <v>6.10327091666511</v>
       </c>
       <c r="K12">
-        <v>2.354129291889208</v>
+        <v>2.354129291889251</v>
       </c>
       <c r="L12">
-        <v>2.411752781210836</v>
+        <v>2.411752781210822</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.07491380939328</v>
+        <v>1.074913809393365</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3953495387890342</v>
+        <v>0.3953495387890058</v>
       </c>
       <c r="E13">
-        <v>0.4783882801440029</v>
+        <v>0.4783882801440456</v>
       </c>
       <c r="F13">
-        <v>8.084880496487813</v>
+        <v>8.084880496487898</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0.5644435422026106</v>
       </c>
       <c r="I13">
-        <v>0.1610234018253429</v>
+        <v>0.1610234018253571</v>
       </c>
       <c r="J13">
         <v>6.060891681476647</v>
       </c>
       <c r="K13">
-        <v>2.337426843742463</v>
+        <v>2.337426843742477</v>
       </c>
       <c r="L13">
-        <v>2.395348251585787</v>
+        <v>2.39534825158583</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.054223044712188</v>
+        <v>1.054223044712217</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3851019317725672</v>
+        <v>0.3851019317725246</v>
       </c>
       <c r="E14">
-        <v>0.4672648218138704</v>
+        <v>0.4672648218139415</v>
       </c>
       <c r="F14">
-        <v>7.895893156907306</v>
+        <v>7.895893156907334</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.5586043524386781</v>
+        <v>0.5586043524386852</v>
       </c>
       <c r="I14">
-        <v>0.1578199172802961</v>
+        <v>0.1578199172803352</v>
       </c>
       <c r="J14">
-        <v>5.923869784297409</v>
+        <v>5.923869784297437</v>
       </c>
       <c r="K14">
-        <v>2.283458042099412</v>
+        <v>2.283458042099397</v>
       </c>
       <c r="L14">
-        <v>2.342274348543683</v>
+        <v>2.342274348543697</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.041602676316103</v>
+        <v>1.04160267631616</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3789253093284373</v>
+        <v>0.3789253093284231</v>
       </c>
       <c r="E15">
-        <v>0.4605424959264539</v>
+        <v>0.4605424959264326</v>
       </c>
       <c r="F15">
-        <v>7.781724265738603</v>
+        <v>7.781724265738546</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.5551470304379507</v>
+        <v>0.5551470304379293</v>
       </c>
       <c r="I15">
-        <v>0.1558823650615651</v>
+        <v>0.1558823650615899</v>
       </c>
       <c r="J15">
-        <v>5.840815204930891</v>
+        <v>5.840815204930919</v>
       </c>
       <c r="K15">
-        <v>2.250770991648409</v>
+        <v>2.250770991648437</v>
       </c>
       <c r="L15">
-        <v>2.310078974322323</v>
+        <v>2.310078974322337</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9700228401672746</v>
+        <v>0.9700228401671893</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,28 +953,28 @@
         <v>0.3449108487423871</v>
       </c>
       <c r="E16">
-        <v>0.4232644693832768</v>
+        <v>0.4232644693832341</v>
       </c>
       <c r="F16">
-        <v>7.149499656070759</v>
+        <v>7.149499656070731</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.5370106871740603</v>
+        <v>0.537010687174039</v>
       </c>
       <c r="I16">
-        <v>0.1451148082449798</v>
+        <v>0.145114808244962</v>
       </c>
       <c r="J16">
-        <v>5.376923519555305</v>
+        <v>5.376923519555334</v>
       </c>
       <c r="K16">
-        <v>2.068568528902276</v>
+        <v>2.06856852890229</v>
       </c>
       <c r="L16">
-        <v>2.129919940117617</v>
+        <v>2.129919940117588</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9267001153764909</v>
+        <v>0.9267001153765193</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.325126561756818</v>
+        <v>0.3251265617570454</v>
       </c>
       <c r="E17">
-        <v>0.4013617572847465</v>
+        <v>0.4013617572846826</v>
       </c>
       <c r="F17">
-        <v>6.77903588841798</v>
+        <v>6.779035888417894</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.5272320116370963</v>
+        <v>0.5272320116371034</v>
       </c>
       <c r="I17">
-        <v>0.1387684926116144</v>
+        <v>0.1387684926116037</v>
       </c>
       <c r="J17">
-        <v>5.101798591958215</v>
+        <v>5.101798591958186</v>
       </c>
       <c r="K17">
-        <v>1.96081341259405</v>
+        <v>1.960813412594021</v>
       </c>
       <c r="L17">
-        <v>2.022814919933097</v>
+        <v>2.022814919933069</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9019724176196178</v>
+        <v>0.901972417619703</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3140925669888333</v>
+        <v>0.3140925669886769</v>
       </c>
       <c r="E18">
-        <v>0.3890686360106272</v>
+        <v>0.3890686360106059</v>
       </c>
       <c r="F18">
-        <v>6.571545710381031</v>
+        <v>6.571545710380974</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.5220503806656325</v>
+        <v>0.5220503806656112</v>
       </c>
       <c r="I18">
-        <v>0.1351995221714333</v>
+        <v>0.1351995221714724</v>
       </c>
       <c r="J18">
-        <v>4.946572186502891</v>
+        <v>4.946572186502777</v>
       </c>
       <c r="K18">
-        <v>1.900122215746862</v>
+        <v>1.900122215746791</v>
       </c>
       <c r="L18">
-        <v>1.962306241836586</v>
+        <v>1.962306241836558</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,28 +1064,28 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3104115649757091</v>
+        <v>0.3104115649755528</v>
       </c>
       <c r="E19">
-        <v>0.3849545253254831</v>
+        <v>0.3849545253253908</v>
       </c>
       <c r="F19">
-        <v>6.50218585983535</v>
+        <v>6.502185859835294</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.5203675740125036</v>
+        <v>0.5203675740125107</v>
       </c>
       <c r="I19">
-        <v>0.1340039184171395</v>
+        <v>0.1340039184171182</v>
       </c>
       <c r="J19">
-        <v>4.894494959365829</v>
+        <v>4.894494959365773</v>
       </c>
       <c r="K19">
-        <v>1.879778093000127</v>
+        <v>1.879778093000112</v>
       </c>
       <c r="L19">
         <v>1.941993586149707</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9312916422674675</v>
+        <v>0.9312916422675528</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3271958057629263</v>
+        <v>0.3271958057629121</v>
       </c>
       <c r="E20">
         <v>0.4036607662915159</v>
       </c>
       <c r="F20">
-        <v>6.817877256802859</v>
+        <v>6.817877256802888</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.5282260529409371</v>
+        <v>0.5282260529409442</v>
       </c>
       <c r="I20">
-        <v>0.1394353715588004</v>
+        <v>0.1394353715587471</v>
       </c>
       <c r="J20">
-        <v>5.130764290624484</v>
+        <v>5.130764290624569</v>
       </c>
       <c r="K20">
-        <v>1.97214701686454</v>
+        <v>1.972147016864554</v>
       </c>
       <c r="L20">
         <v>2.034099753055514</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.060289120033104</v>
+        <v>1.060289120033048</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3880905878479979</v>
+        <v>0.3880905878482395</v>
       </c>
       <c r="E21">
-        <v>0.4705126697573974</v>
+        <v>0.4705126697574045</v>
       </c>
       <c r="F21">
-        <v>7.951065604510632</v>
+        <v>7.951065604510575</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.5602941975549882</v>
+        <v>0.5602941975549811</v>
       </c>
       <c r="I21">
-        <v>0.158755605939195</v>
+        <v>0.1587556059391844</v>
       </c>
       <c r="J21">
-        <v>5.963930528202383</v>
+        <v>5.963930528202468</v>
       </c>
       <c r="K21">
         <v>2.299231343145522</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.146910232528256</v>
+        <v>1.146910232528143</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4322332004986293</v>
+        <v>0.4322332004987999</v>
       </c>
       <c r="E22">
-        <v>0.5181417375665518</v>
+        <v>0.5181417375665731</v>
       </c>
       <c r="F22">
-        <v>8.760665139448236</v>
+        <v>8.760665139448292</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0.5864484401293808</v>
       </c>
       <c r="I22">
-        <v>0.1724477445976547</v>
+        <v>0.1724477445976653</v>
       </c>
       <c r="J22">
-        <v>6.546351920511029</v>
+        <v>6.546351920511086</v>
       </c>
       <c r="K22">
-        <v>2.5290457765349</v>
+        <v>2.529045776534858</v>
       </c>
       <c r="L22">
         <v>2.582954670540033</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.100431462267039</v>
+        <v>1.100431462266982</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4082001189814264</v>
+        <v>0.4082001189815827</v>
       </c>
       <c r="E23">
-        <v>0.492287273546772</v>
+        <v>0.4922872735467649</v>
       </c>
       <c r="F23">
         <v>8.321115306121413</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.5719403844444741</v>
+        <v>0.5719403844445168</v>
       </c>
       <c r="I23">
-        <v>0.16502187594077</v>
+        <v>0.1650218759408162</v>
       </c>
       <c r="J23">
-        <v>6.231380479558908</v>
+        <v>6.231380479558936</v>
       </c>
       <c r="K23">
-        <v>2.404649531499729</v>
+        <v>2.404649531499743</v>
       </c>
       <c r="L23">
-        <v>2.461311624885155</v>
+        <v>2.461311624885141</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9292152611837992</v>
+        <v>0.9292152611836286</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3262592529803783</v>
+        <v>0.326259252980563</v>
       </c>
       <c r="E24">
-        <v>0.4026204646368328</v>
+        <v>0.4026204646368114</v>
       </c>
       <c r="F24">
         <v>6.800300147161664</v>
@@ -1269,16 +1269,16 @@
         <v>0.5277752878099449</v>
       </c>
       <c r="I24">
-        <v>0.1391336308882778</v>
+        <v>0.1391336308882813</v>
       </c>
       <c r="J24">
-        <v>5.117659827320182</v>
+        <v>5.117659827320153</v>
       </c>
       <c r="K24">
-        <v>1.967019218560623</v>
+        <v>1.96701921856058</v>
       </c>
       <c r="L24">
-        <v>2.028994592726576</v>
+        <v>2.028994592726548</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.751637516611396</v>
+        <v>0.7516375166112823</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2507929730061988</v>
+        <v>0.2507929730062131</v>
       </c>
       <c r="E25">
-        <v>0.3172890263937234</v>
+        <v>0.3172890263937518</v>
       </c>
       <c r="F25">
-        <v>5.369022744881363</v>
+        <v>5.369022744881335</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.4967502193772759</v>
+        <v>0.4967502193772617</v>
       </c>
       <c r="I25">
-        <v>0.1142449094333777</v>
+        <v>0.1142449094333529</v>
       </c>
       <c r="J25">
-        <v>4.029129608921579</v>
+        <v>4.029129608921522</v>
       </c>
       <c r="K25">
-        <v>1.543062182575952</v>
+        <v>1.543062182575909</v>
       </c>
       <c r="L25">
         <v>1.603609352761111</v>

--- a/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6247044062306202</v>
+        <v>0.6247044062305918</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2020288367143905</v>
+        <v>0.2020288367141774</v>
       </c>
       <c r="E2">
-        <v>0.2601626050977899</v>
+        <v>0.2601626050977615</v>
       </c>
       <c r="F2">
         <v>4.428416966242196</v>
@@ -433,13 +433,13 @@
         <v>0.4837702392605365</v>
       </c>
       <c r="I2">
-        <v>0.09739985257686712</v>
+        <v>0.09739985257687067</v>
       </c>
       <c r="J2">
-        <v>3.286553872908229</v>
+        <v>3.286553872908172</v>
       </c>
       <c r="K2">
-        <v>1.256334939443377</v>
+        <v>1.256334939443391</v>
       </c>
       <c r="L2">
         <v>1.312132589552874</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5402355189136756</v>
+        <v>0.5402355189138461</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -459,7 +459,7 @@
         <v>0.1717892736972999</v>
       </c>
       <c r="E3">
-        <v>0.2236675257786658</v>
+        <v>0.2236675257786942</v>
       </c>
       <c r="F3">
         <v>3.838958950779386</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.4795911275583222</v>
+        <v>0.479591127558308</v>
       </c>
       <c r="I3">
-        <v>0.08654201726057309</v>
+        <v>0.0865420172605802</v>
       </c>
       <c r="J3">
         <v>2.807170382623738</v>
@@ -480,7 +480,7 @@
         <v>1.072470966143882</v>
       </c>
       <c r="L3">
-        <v>1.123543364684259</v>
+        <v>1.123543364684274</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4889243784339072</v>
+        <v>0.4889243784340209</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1542557359873058</v>
+        <v>0.1542557359874195</v>
       </c>
       <c r="E4">
-        <v>0.2020316664909885</v>
+        <v>0.2020316664909956</v>
       </c>
       <c r="F4">
-        <v>3.495069807776474</v>
+        <v>3.495069807776503</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0.4789132105496705</v>
       </c>
       <c r="I4">
-        <v>0.08006333551284683</v>
+        <v>0.08006333551283618</v>
       </c>
       <c r="J4">
-        <v>2.521409462398964</v>
+        <v>2.521409462398921</v>
       </c>
       <c r="K4">
-        <v>0.9633895425899084</v>
+        <v>0.9633895425899226</v>
       </c>
       <c r="L4">
-        <v>1.011009834452864</v>
+        <v>1.011009834452857</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4681268322391077</v>
+        <v>0.4681268322391503</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1473273666610027</v>
+        <v>0.1473273666611163</v>
       </c>
       <c r="E5">
-        <v>0.1933698166806579</v>
+        <v>0.1933698166806863</v>
       </c>
       <c r="F5">
         <v>3.358769184580609</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.4790626247364997</v>
+        <v>0.479062624736514</v>
       </c>
       <c r="I5">
-        <v>0.07745997700678231</v>
+        <v>0.0774599770067681</v>
       </c>
       <c r="J5">
-        <v>2.406723688885378</v>
+        <v>2.406723688885407</v>
       </c>
       <c r="K5">
-        <v>0.9197300195548763</v>
+        <v>0.9197300195548905</v>
       </c>
       <c r="L5">
-        <v>0.9658284471630836</v>
+        <v>0.9658284471630978</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,31 +570,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1461888673687639</v>
+        <v>0.1461888673684655</v>
       </c>
       <c r="E6">
-        <v>0.1919398558304763</v>
+        <v>0.1919398558304479</v>
       </c>
       <c r="F6">
-        <v>3.336349830898797</v>
+        <v>3.336349830898826</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.4791118362544324</v>
+        <v>0.4791118362544182</v>
       </c>
       <c r="I6">
-        <v>0.07702963736053547</v>
+        <v>0.0770296373605337</v>
       </c>
       <c r="J6">
-        <v>2.387776363430476</v>
+        <v>2.387776363430504</v>
       </c>
       <c r="K6">
-        <v>0.912523832494486</v>
+        <v>0.9125238324945002</v>
       </c>
       <c r="L6">
-        <v>0.9583632134430715</v>
+        <v>0.9583632134430857</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4886434743168024</v>
+        <v>0.4886434743168593</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1541614724056473</v>
+        <v>0.1541614724056615</v>
       </c>
       <c r="E7">
-        <v>0.2019142695538605</v>
+        <v>0.2019142695539244</v>
       </c>
       <c r="F7">
-        <v>3.493216922422903</v>
+        <v>3.493216922422846</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.4789135620314724</v>
+        <v>0.4789135620314653</v>
       </c>
       <c r="I7">
-        <v>0.08002808948829099</v>
+        <v>0.08002808948829809</v>
       </c>
       <c r="J7">
-        <v>2.519856104095993</v>
+        <v>2.519856104095965</v>
       </c>
       <c r="K7">
         <v>0.9627977297594583</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5954473224390711</v>
+        <v>0.5954473224390142</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1913593529556294</v>
+        <v>0.1913593529554731</v>
       </c>
       <c r="E8">
         <v>0.247392959690302</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.4819055633248226</v>
+        <v>0.4819055633248084</v>
       </c>
       <c r="I8">
-        <v>0.09361007361117757</v>
+        <v>0.09361007361118112</v>
       </c>
       <c r="J8">
-        <v>3.119223487748314</v>
+        <v>3.119223487748286</v>
       </c>
       <c r="K8">
-        <v>1.192038741962662</v>
+        <v>1.192038741962648</v>
       </c>
       <c r="L8">
-        <v>1.246336871748042</v>
+        <v>1.246336871748028</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.81073333345077</v>
+        <v>0.8107333334508837</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2749259693557775</v>
+        <v>0.2749259693558201</v>
       </c>
       <c r="E9">
         <v>0.3449296182751027</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.5054258424365727</v>
+        <v>0.5054258424365585</v>
       </c>
       <c r="I9">
-        <v>0.1223390034747354</v>
+        <v>0.1223390034747105</v>
       </c>
       <c r="J9">
-        <v>4.384588997571342</v>
+        <v>4.384588997571285</v>
       </c>
       <c r="K9">
         <v>1.681057203374536</v>
       </c>
       <c r="L9">
-        <v>1.742790470776313</v>
+        <v>1.742790470776299</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -722,31 +722,31 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3472187692571822</v>
+        <v>0.3472187692569975</v>
       </c>
       <c r="E10">
-        <v>0.4258084567111311</v>
+        <v>0.4258084567111453</v>
       </c>
       <c r="F10">
-        <v>7.192584583518425</v>
+        <v>7.192584583518453</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.5381901101350053</v>
+        <v>0.5381901101350124</v>
       </c>
       <c r="I10">
-        <v>0.1458509351949324</v>
+        <v>0.1458509351948862</v>
       </c>
       <c r="J10">
-        <v>5.408757580303671</v>
+        <v>5.408757580303643</v>
       </c>
       <c r="K10">
-        <v>2.081051595917401</v>
+        <v>2.081051595917415</v>
       </c>
       <c r="L10">
-        <v>2.142300812921405</v>
+        <v>2.142300812921391</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.051806547181371</v>
+        <v>1.051806547181485</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3839149608076298</v>
+        <v>0.3839149608080135</v>
       </c>
       <c r="E11">
-        <v>0.4659740383729201</v>
+        <v>0.4659740383729414</v>
       </c>
       <c r="F11">
         <v>7.873968278539564</v>
@@ -775,16 +775,16 @@
         <v>0.5579362631429277</v>
       </c>
       <c r="I11">
-        <v>0.1574479723624229</v>
+        <v>0.1574479723624407</v>
       </c>
       <c r="J11">
-        <v>5.907936493976024</v>
+        <v>5.907936493975939</v>
       </c>
       <c r="K11">
-        <v>2.277185807972344</v>
+        <v>2.277185807972316</v>
       </c>
       <c r="L11">
-        <v>2.336099406133798</v>
+        <v>2.336099406133783</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.081280364044005</v>
+        <v>1.081280364043948</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3985335077269383</v>
+        <v>0.3985335077268957</v>
       </c>
       <c r="E12">
-        <v>0.4818370882498897</v>
+        <v>0.4818370882499394</v>
       </c>
       <c r="F12">
-        <v>8.143490463114375</v>
+        <v>8.143490463114347</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.5662832806775668</v>
+        <v>0.5662832806775526</v>
       </c>
       <c r="I12">
-        <v>0.1620159992664654</v>
+        <v>0.1620159992664263</v>
       </c>
       <c r="J12">
-        <v>6.10327091666511</v>
+        <v>6.103270916665167</v>
       </c>
       <c r="K12">
-        <v>2.354129291889251</v>
+        <v>2.354129291889208</v>
       </c>
       <c r="L12">
-        <v>2.411752781210822</v>
+        <v>2.411752781210836</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.074913809393365</v>
+        <v>1.07491380939328</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3953495387890058</v>
+        <v>0.3953495387890342</v>
       </c>
       <c r="E13">
-        <v>0.4783882801440456</v>
+        <v>0.4783882801440029</v>
       </c>
       <c r="F13">
-        <v>8.084880496487898</v>
+        <v>8.084880496487813</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0.5644435422026106</v>
       </c>
       <c r="I13">
-        <v>0.1610234018253571</v>
+        <v>0.1610234018253429</v>
       </c>
       <c r="J13">
         <v>6.060891681476647</v>
       </c>
       <c r="K13">
-        <v>2.337426843742477</v>
+        <v>2.337426843742463</v>
       </c>
       <c r="L13">
-        <v>2.39534825158583</v>
+        <v>2.395348251585787</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.054223044712217</v>
+        <v>1.054223044712188</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3851019317725246</v>
+        <v>0.3851019317725672</v>
       </c>
       <c r="E14">
-        <v>0.4672648218139415</v>
+        <v>0.4672648218138704</v>
       </c>
       <c r="F14">
-        <v>7.895893156907334</v>
+        <v>7.895893156907306</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.5586043524386852</v>
+        <v>0.5586043524386781</v>
       </c>
       <c r="I14">
-        <v>0.1578199172803352</v>
+        <v>0.1578199172802961</v>
       </c>
       <c r="J14">
-        <v>5.923869784297437</v>
+        <v>5.923869784297409</v>
       </c>
       <c r="K14">
-        <v>2.283458042099397</v>
+        <v>2.283458042099412</v>
       </c>
       <c r="L14">
-        <v>2.342274348543697</v>
+        <v>2.342274348543683</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.04160267631616</v>
+        <v>1.041602676316103</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3789253093284231</v>
+        <v>0.3789253093284373</v>
       </c>
       <c r="E15">
-        <v>0.4605424959264326</v>
+        <v>0.4605424959264539</v>
       </c>
       <c r="F15">
-        <v>7.781724265738546</v>
+        <v>7.781724265738603</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.5551470304379293</v>
+        <v>0.5551470304379507</v>
       </c>
       <c r="I15">
-        <v>0.1558823650615899</v>
+        <v>0.1558823650615651</v>
       </c>
       <c r="J15">
-        <v>5.840815204930919</v>
+        <v>5.840815204930891</v>
       </c>
       <c r="K15">
-        <v>2.250770991648437</v>
+        <v>2.250770991648409</v>
       </c>
       <c r="L15">
-        <v>2.310078974322337</v>
+        <v>2.310078974322323</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9700228401671893</v>
+        <v>0.9700228401672746</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,28 +953,28 @@
         <v>0.3449108487423871</v>
       </c>
       <c r="E16">
-        <v>0.4232644693832341</v>
+        <v>0.4232644693832768</v>
       </c>
       <c r="F16">
-        <v>7.149499656070731</v>
+        <v>7.149499656070759</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.537010687174039</v>
+        <v>0.5370106871740603</v>
       </c>
       <c r="I16">
-        <v>0.145114808244962</v>
+        <v>0.1451148082449798</v>
       </c>
       <c r="J16">
-        <v>5.376923519555334</v>
+        <v>5.376923519555305</v>
       </c>
       <c r="K16">
-        <v>2.06856852890229</v>
+        <v>2.068568528902276</v>
       </c>
       <c r="L16">
-        <v>2.129919940117588</v>
+        <v>2.129919940117617</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9267001153765193</v>
+        <v>0.9267001153764909</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3251265617570454</v>
+        <v>0.325126561756818</v>
       </c>
       <c r="E17">
-        <v>0.4013617572846826</v>
+        <v>0.4013617572847465</v>
       </c>
       <c r="F17">
-        <v>6.779035888417894</v>
+        <v>6.77903588841798</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.5272320116371034</v>
+        <v>0.5272320116370963</v>
       </c>
       <c r="I17">
-        <v>0.1387684926116037</v>
+        <v>0.1387684926116144</v>
       </c>
       <c r="J17">
-        <v>5.101798591958186</v>
+        <v>5.101798591958215</v>
       </c>
       <c r="K17">
-        <v>1.960813412594021</v>
+        <v>1.96081341259405</v>
       </c>
       <c r="L17">
-        <v>2.022814919933069</v>
+        <v>2.022814919933097</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.901972417619703</v>
+        <v>0.9019724176196178</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3140925669886769</v>
+        <v>0.3140925669888333</v>
       </c>
       <c r="E18">
-        <v>0.3890686360106059</v>
+        <v>0.3890686360106272</v>
       </c>
       <c r="F18">
-        <v>6.571545710380974</v>
+        <v>6.571545710381031</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.5220503806656112</v>
+        <v>0.5220503806656325</v>
       </c>
       <c r="I18">
-        <v>0.1351995221714724</v>
+        <v>0.1351995221714333</v>
       </c>
       <c r="J18">
-        <v>4.946572186502777</v>
+        <v>4.946572186502891</v>
       </c>
       <c r="K18">
-        <v>1.900122215746791</v>
+        <v>1.900122215746862</v>
       </c>
       <c r="L18">
-        <v>1.962306241836558</v>
+        <v>1.962306241836586</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,28 +1064,28 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3104115649755528</v>
+        <v>0.3104115649757091</v>
       </c>
       <c r="E19">
-        <v>0.3849545253253908</v>
+        <v>0.3849545253254831</v>
       </c>
       <c r="F19">
-        <v>6.502185859835294</v>
+        <v>6.50218585983535</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.5203675740125107</v>
+        <v>0.5203675740125036</v>
       </c>
       <c r="I19">
-        <v>0.1340039184171182</v>
+        <v>0.1340039184171395</v>
       </c>
       <c r="J19">
-        <v>4.894494959365773</v>
+        <v>4.894494959365829</v>
       </c>
       <c r="K19">
-        <v>1.879778093000112</v>
+        <v>1.879778093000127</v>
       </c>
       <c r="L19">
         <v>1.941993586149707</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9312916422675528</v>
+        <v>0.9312916422674675</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3271958057629121</v>
+        <v>0.3271958057629263</v>
       </c>
       <c r="E20">
         <v>0.4036607662915159</v>
       </c>
       <c r="F20">
-        <v>6.817877256802888</v>
+        <v>6.817877256802859</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.5282260529409442</v>
+        <v>0.5282260529409371</v>
       </c>
       <c r="I20">
-        <v>0.1394353715587471</v>
+        <v>0.1394353715588004</v>
       </c>
       <c r="J20">
-        <v>5.130764290624569</v>
+        <v>5.130764290624484</v>
       </c>
       <c r="K20">
-        <v>1.972147016864554</v>
+        <v>1.97214701686454</v>
       </c>
       <c r="L20">
         <v>2.034099753055514</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.060289120033048</v>
+        <v>1.060289120033104</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3880905878482395</v>
+        <v>0.3880905878479979</v>
       </c>
       <c r="E21">
-        <v>0.4705126697574045</v>
+        <v>0.4705126697573974</v>
       </c>
       <c r="F21">
-        <v>7.951065604510575</v>
+        <v>7.951065604510632</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.5602941975549811</v>
+        <v>0.5602941975549882</v>
       </c>
       <c r="I21">
-        <v>0.1587556059391844</v>
+        <v>0.158755605939195</v>
       </c>
       <c r="J21">
-        <v>5.963930528202468</v>
+        <v>5.963930528202383</v>
       </c>
       <c r="K21">
         <v>2.299231343145522</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.146910232528143</v>
+        <v>1.146910232528256</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4322332004987999</v>
+        <v>0.4322332004986293</v>
       </c>
       <c r="E22">
-        <v>0.5181417375665731</v>
+        <v>0.5181417375665518</v>
       </c>
       <c r="F22">
-        <v>8.760665139448292</v>
+        <v>8.760665139448236</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0.5864484401293808</v>
       </c>
       <c r="I22">
-        <v>0.1724477445976653</v>
+        <v>0.1724477445976547</v>
       </c>
       <c r="J22">
-        <v>6.546351920511086</v>
+        <v>6.546351920511029</v>
       </c>
       <c r="K22">
-        <v>2.529045776534858</v>
+        <v>2.5290457765349</v>
       </c>
       <c r="L22">
         <v>2.582954670540033</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.100431462266982</v>
+        <v>1.100431462267039</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4082001189815827</v>
+        <v>0.4082001189814264</v>
       </c>
       <c r="E23">
-        <v>0.4922872735467649</v>
+        <v>0.492287273546772</v>
       </c>
       <c r="F23">
         <v>8.321115306121413</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.5719403844445168</v>
+        <v>0.5719403844444741</v>
       </c>
       <c r="I23">
-        <v>0.1650218759408162</v>
+        <v>0.16502187594077</v>
       </c>
       <c r="J23">
-        <v>6.231380479558936</v>
+        <v>6.231380479558908</v>
       </c>
       <c r="K23">
-        <v>2.404649531499743</v>
+        <v>2.404649531499729</v>
       </c>
       <c r="L23">
-        <v>2.461311624885141</v>
+        <v>2.461311624885155</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9292152611836286</v>
+        <v>0.9292152611837992</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.326259252980563</v>
+        <v>0.3262592529803783</v>
       </c>
       <c r="E24">
-        <v>0.4026204646368114</v>
+        <v>0.4026204646368328</v>
       </c>
       <c r="F24">
         <v>6.800300147161664</v>
@@ -1269,16 +1269,16 @@
         <v>0.5277752878099449</v>
       </c>
       <c r="I24">
-        <v>0.1391336308882813</v>
+        <v>0.1391336308882778</v>
       </c>
       <c r="J24">
-        <v>5.117659827320153</v>
+        <v>5.117659827320182</v>
       </c>
       <c r="K24">
-        <v>1.96701921856058</v>
+        <v>1.967019218560623</v>
       </c>
       <c r="L24">
-        <v>2.028994592726548</v>
+        <v>2.028994592726576</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7516375166112823</v>
+        <v>0.751637516611396</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2507929730062131</v>
+        <v>0.2507929730061988</v>
       </c>
       <c r="E25">
-        <v>0.3172890263937518</v>
+        <v>0.3172890263937234</v>
       </c>
       <c r="F25">
-        <v>5.369022744881335</v>
+        <v>5.369022744881363</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.4967502193772617</v>
+        <v>0.4967502193772759</v>
       </c>
       <c r="I25">
-        <v>0.1142449094333529</v>
+        <v>0.1142449094333777</v>
       </c>
       <c r="J25">
-        <v>4.029129608921522</v>
+        <v>4.029129608921579</v>
       </c>
       <c r="K25">
-        <v>1.543062182575909</v>
+        <v>1.543062182575952</v>
       </c>
       <c r="L25">
         <v>1.603609352761111</v>

--- a/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6247044062305918</v>
+        <v>0.6225302910861217</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2020288367141774</v>
+        <v>0.2001954481522716</v>
       </c>
       <c r="E2">
-        <v>0.2601626050977615</v>
+        <v>0.2511878383788115</v>
       </c>
       <c r="F2">
-        <v>4.428416966242196</v>
+        <v>4.421914316128635</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007369340273601072</v>
       </c>
       <c r="H2">
-        <v>0.4837702392605365</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.09739985257687067</v>
+        <v>0.49279199315135</v>
       </c>
       <c r="J2">
-        <v>3.286553872908172</v>
+        <v>0.09379099354387321</v>
       </c>
       <c r="K2">
-        <v>1.256334939443391</v>
+        <v>3.247849241606062</v>
       </c>
       <c r="L2">
-        <v>1.312132589552874</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.245209276255807</v>
+      </c>
+      <c r="M2">
+        <v>1.302234093921996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5402355189138461</v>
+        <v>0.5383749291253253</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1717892736972999</v>
+        <v>0.170963942105729</v>
       </c>
       <c r="E3">
-        <v>0.2236675257786942</v>
+        <v>0.2154708290788676</v>
       </c>
       <c r="F3">
-        <v>3.838958950779386</v>
+        <v>3.843882757894278</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007526574347187509</v>
       </c>
       <c r="H3">
-        <v>0.479591127558308</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0865420172605802</v>
+        <v>0.489461849856049</v>
       </c>
       <c r="J3">
-        <v>2.807170382623738</v>
+        <v>0.08311970679430303</v>
       </c>
       <c r="K3">
-        <v>1.072470966143882</v>
+        <v>2.774695679189122</v>
       </c>
       <c r="L3">
-        <v>1.123543364684274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.063757105346681</v>
+      </c>
+      <c r="M3">
+        <v>1.115648135040082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4889243784340209</v>
+        <v>0.4872531430001033</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1542557359874195</v>
+        <v>0.1540341931931835</v>
       </c>
       <c r="E4">
-        <v>0.2020316664909956</v>
+        <v>0.1942947434551598</v>
       </c>
       <c r="F4">
-        <v>3.495069807776503</v>
+        <v>3.506790346473025</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007624209571764266</v>
       </c>
       <c r="H4">
-        <v>0.4789132105496705</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.08006333551283618</v>
+        <v>0.489291888041457</v>
       </c>
       <c r="J4">
-        <v>2.521409462398921</v>
+        <v>0.0767500290496308</v>
       </c>
       <c r="K4">
-        <v>0.9633895425899226</v>
+        <v>2.492636471518722</v>
       </c>
       <c r="L4">
-        <v>1.011009834452857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.956104044172406</v>
+      </c>
+      <c r="M4">
+        <v>1.004303556726008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4681268322391503</v>
+        <v>0.4665323109308446</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1473273666611163</v>
+        <v>0.1473494021755641</v>
       </c>
       <c r="E5">
-        <v>0.1933698166806863</v>
+        <v>0.1858170141043161</v>
       </c>
       <c r="F5">
-        <v>3.358769184580609</v>
+        <v>3.373221365314805</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007664352445144146</v>
       </c>
       <c r="H5">
-        <v>0.479062624736514</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0774599770067681</v>
+        <v>0.4896461006462332</v>
       </c>
       <c r="J5">
-        <v>2.406723688885407</v>
+        <v>0.07419005152441649</v>
       </c>
       <c r="K5">
-        <v>0.9197300195548905</v>
+        <v>2.379437674448312</v>
       </c>
       <c r="L5">
-        <v>0.9658284471630978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.9130172124158378</v>
+      </c>
+      <c r="M5">
+        <v>0.959599436250322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.464679469721176</v>
+        <v>0.4630976682586123</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1461888673684655</v>
+        <v>0.1462512338730448</v>
       </c>
       <c r="E6">
-        <v>0.1919398558304479</v>
+        <v>0.1844174629451416</v>
       </c>
       <c r="F6">
-        <v>3.336349830898826</v>
+        <v>3.351253732228514</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007671041764477234</v>
       </c>
       <c r="H6">
-        <v>0.4791118362544182</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0770296373605337</v>
+        <v>0.4897292155656814</v>
       </c>
       <c r="J6">
-        <v>2.387776363430504</v>
+        <v>0.07376686144157318</v>
       </c>
       <c r="K6">
-        <v>0.9125238324945002</v>
+        <v>2.360736204119959</v>
       </c>
       <c r="L6">
-        <v>0.9583632134430857</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.9059056509508991</v>
+      </c>
+      <c r="M6">
+        <v>0.9522130933060353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4886434743168593</v>
+        <v>0.4869732748955471</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1541614724056615</v>
+        <v>0.1539432230181461</v>
       </c>
       <c r="E7">
-        <v>0.2019142695539244</v>
+        <v>0.1941798412588085</v>
       </c>
       <c r="F7">
-        <v>3.493216922422846</v>
+        <v>3.504974435181566</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007624749414995069</v>
       </c>
       <c r="H7">
-        <v>0.4789135620314653</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.08002808948829809</v>
+        <v>0.4892950090437012</v>
       </c>
       <c r="J7">
-        <v>2.519856104095965</v>
+        <v>0.07671537187024313</v>
       </c>
       <c r="K7">
-        <v>0.9627977297594583</v>
+        <v>2.491103242964599</v>
       </c>
       <c r="L7">
-        <v>1.010397935236043</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.9555199883471914</v>
+      </c>
+      <c r="M7">
+        <v>1.003698119798386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5954473224390142</v>
+        <v>0.5933821969739483</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1913593529554731</v>
+        <v>0.1898775906023644</v>
       </c>
       <c r="E8">
-        <v>0.247392959690302</v>
+        <v>0.2386910600327425</v>
       </c>
       <c r="F8">
-        <v>4.220970994460799</v>
+        <v>4.218465117338752</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007423380509092105</v>
       </c>
       <c r="H8">
-        <v>0.4819055633248084</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.09361007361118112</v>
+        <v>0.4912235743523254</v>
       </c>
       <c r="J8">
-        <v>3.119223487748286</v>
+        <v>0.09006692453219856</v>
       </c>
       <c r="K8">
-        <v>1.192038741962648</v>
+        <v>3.08269899791938</v>
       </c>
       <c r="L8">
-        <v>1.246336871748028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.181758136995228</v>
+      </c>
+      <c r="M8">
+        <v>1.237139701809525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8107333334508837</v>
+        <v>0.8078478419307658</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2749259693558201</v>
+        <v>0.2707657746430385</v>
       </c>
       <c r="E9">
-        <v>0.3449296182751027</v>
+        <v>0.3341108193022393</v>
       </c>
       <c r="F9">
-        <v>5.829941386440908</v>
+        <v>5.796704039995063</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007032703043090005</v>
       </c>
       <c r="H9">
-        <v>0.5054258424365585</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1223390034747105</v>
+        <v>0.5124846830125165</v>
       </c>
       <c r="J9">
-        <v>4.384588997571285</v>
+        <v>0.1182785487165425</v>
       </c>
       <c r="K9">
-        <v>1.681057203374536</v>
+        <v>4.331268069299625</v>
       </c>
       <c r="L9">
-        <v>1.742790470776299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>1.664240922001014</v>
+      </c>
+      <c r="M9">
+        <v>1.72818406623891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9749938715961548</v>
+        <v>0.9714350703125092</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3472187692569975</v>
+        <v>0.3408073697608955</v>
       </c>
       <c r="E10">
-        <v>0.4258084567111453</v>
+        <v>0.4131441697597538</v>
       </c>
       <c r="F10">
-        <v>7.192584583518453</v>
+        <v>7.133033146079896</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006740225320197006</v>
       </c>
       <c r="H10">
-        <v>0.5381901101350124</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1458509351948862</v>
+        <v>0.5433485293711087</v>
       </c>
       <c r="J10">
-        <v>5.408757580303643</v>
+        <v>0.1413266911955979</v>
       </c>
       <c r="K10">
-        <v>2.081051595917415</v>
+        <v>5.340982486423343</v>
       </c>
       <c r="L10">
-        <v>2.142300812921391</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>2.058573562509324</v>
+      </c>
+      <c r="M10">
+        <v>2.123032237037279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.051806547181485</v>
+        <v>1.047910093212153</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3839149608080135</v>
+        <v>0.3763583230344238</v>
       </c>
       <c r="E11">
-        <v>0.4659740383729414</v>
+        <v>0.4523485931071747</v>
       </c>
       <c r="F11">
-        <v>7.873968278539564</v>
+        <v>7.800873166995075</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006603436821763049</v>
       </c>
       <c r="H11">
-        <v>0.5579362631429277</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1574479723624407</v>
+        <v>0.5621288193992413</v>
       </c>
       <c r="J11">
-        <v>5.907936493975939</v>
+        <v>0.1526779934641489</v>
       </c>
       <c r="K11">
-        <v>2.277185807972316</v>
+        <v>5.832691411375066</v>
       </c>
       <c r="L11">
-        <v>2.336099406133783</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>2.251771603658568</v>
+      </c>
+      <c r="M11">
+        <v>2.314420147071885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.081280364043948</v>
+        <v>1.077249344398979</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3985335077268957</v>
+        <v>0.3905176947707503</v>
       </c>
       <c r="E12">
-        <v>0.4818370882499394</v>
+        <v>0.4678221605670458</v>
       </c>
       <c r="F12">
-        <v>8.143490463114347</v>
+        <v>8.064936988326679</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006550798372695343</v>
       </c>
       <c r="H12">
-        <v>0.5662832806775526</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1620159992664263</v>
+        <v>0.5700889375822342</v>
       </c>
       <c r="J12">
-        <v>6.103270916665167</v>
+        <v>0.1571456864749088</v>
       </c>
       <c r="K12">
-        <v>2.354129291889208</v>
+        <v>6.02500899416745</v>
       </c>
       <c r="L12">
-        <v>2.411752781210836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.327527668110093</v>
+      </c>
+      <c r="M12">
+        <v>2.389099824682759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.07491380939328</v>
+        <v>1.070912115803139</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3953495387890342</v>
+        <v>0.3874339227600103</v>
       </c>
       <c r="E13">
-        <v>0.4783882801440029</v>
+        <v>0.4644585401239141</v>
       </c>
       <c r="F13">
-        <v>8.084880496487813</v>
+        <v>8.007519435416384</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006562178280587909</v>
       </c>
       <c r="H13">
-        <v>0.5644435422026106</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1610234018253429</v>
+        <v>0.5683336039390596</v>
       </c>
       <c r="J13">
-        <v>6.060891681476647</v>
+        <v>0.1561750702645632</v>
       </c>
       <c r="K13">
-        <v>2.337426843742463</v>
+        <v>5.983289121452913</v>
       </c>
       <c r="L13">
-        <v>2.395348251585787</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>2.311084816397781</v>
+      </c>
+      <c r="M13">
+        <v>2.372908110636018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.054223044712188</v>
+        <v>1.050315670718987</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3851019317725672</v>
+        <v>0.3775080885605462</v>
       </c>
       <c r="E14">
-        <v>0.4672648218138704</v>
+        <v>0.4536079049252422</v>
       </c>
       <c r="F14">
-        <v>7.895893156907306</v>
+        <v>7.822356360544148</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006599125150582539</v>
       </c>
       <c r="H14">
-        <v>0.5586043524386781</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1578199172802961</v>
+        <v>0.5627655507803269</v>
       </c>
       <c r="J14">
-        <v>5.923869784297409</v>
+        <v>0.1530418468612496</v>
       </c>
       <c r="K14">
-        <v>2.283458042099412</v>
+        <v>5.848380718898284</v>
       </c>
       <c r="L14">
-        <v>2.342274348543683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>2.257947839293337</v>
+      </c>
+      <c r="M14">
+        <v>2.320516344794513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.041602676316103</v>
+        <v>1.037752119635087</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3789253093284373</v>
+        <v>0.3715249359776607</v>
       </c>
       <c r="E15">
-        <v>0.4605424959264539</v>
+        <v>0.4470490647568468</v>
       </c>
       <c r="F15">
-        <v>7.781724265738603</v>
+        <v>7.71048310523372</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006621636135994361</v>
       </c>
       <c r="H15">
-        <v>0.5551470304379507</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1558823650615651</v>
+        <v>0.5594713069779118</v>
       </c>
       <c r="J15">
-        <v>5.840815204930891</v>
+        <v>0.1511462969878288</v>
       </c>
       <c r="K15">
-        <v>2.250770991648409</v>
+        <v>5.76659396823311</v>
       </c>
       <c r="L15">
-        <v>2.310078974322323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>2.225759569777395</v>
+      </c>
+      <c r="M15">
+        <v>2.28873015426737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9700228401672746</v>
+        <v>0.9664853089311976</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3449108487423871</v>
+        <v>0.3385712454195158</v>
       </c>
       <c r="E16">
-        <v>0.4232644693832768</v>
+        <v>0.4106599444934389</v>
       </c>
       <c r="F16">
-        <v>7.149499656070759</v>
+        <v>7.090793863651754</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006749065905058199</v>
       </c>
       <c r="H16">
-        <v>0.5370106871740603</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1451148082449798</v>
+        <v>0.5422296904450477</v>
       </c>
       <c r="J16">
-        <v>5.376923519555305</v>
+        <v>0.1406057526134674</v>
       </c>
       <c r="K16">
-        <v>2.068568528902276</v>
+        <v>5.309614120792872</v>
       </c>
       <c r="L16">
-        <v>2.129919940117617</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>2.046273337560848</v>
+      </c>
+      <c r="M16">
+        <v>2.110801632062689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9267001153764909</v>
+        <v>0.9233453123906656</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.325126561756818</v>
+        <v>0.3194019803130885</v>
       </c>
       <c r="E17">
-        <v>0.4013617572847465</v>
+        <v>0.3892667487597805</v>
       </c>
       <c r="F17">
-        <v>6.77903588841798</v>
+        <v>6.727557091536994</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.000682609632725675</v>
       </c>
       <c r="H17">
-        <v>0.5272320116370963</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1387684926116144</v>
+        <v>0.5329701012610144</v>
       </c>
       <c r="J17">
-        <v>5.101798591958215</v>
+        <v>0.134388482174991</v>
       </c>
       <c r="K17">
-        <v>1.96081341259405</v>
+        <v>5.038465753980262</v>
       </c>
       <c r="L17">
-        <v>2.022814919933097</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.940078432751434</v>
+      </c>
+      <c r="M17">
+        <v>2.004979619844278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9019724176196178</v>
+        <v>0.8987199373583792</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3140925669888333</v>
+        <v>0.3087109645398414</v>
       </c>
       <c r="E18">
-        <v>0.3890686360106272</v>
+        <v>0.3772558749897428</v>
       </c>
       <c r="F18">
-        <v>6.571545710381031</v>
+        <v>6.524083786843249</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006870072880395039</v>
       </c>
       <c r="H18">
-        <v>0.5220503806656325</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1351995221714333</v>
+        <v>0.5280780125539337</v>
       </c>
       <c r="J18">
-        <v>4.946572186502891</v>
+        <v>0.1308906451730536</v>
       </c>
       <c r="K18">
-        <v>1.900122215746862</v>
+        <v>4.885447057301178</v>
       </c>
       <c r="L18">
-        <v>1.962306241836586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.880252562869686</v>
+      </c>
+      <c r="M18">
+        <v>1.945183129512685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8936305004397127</v>
+        <v>0.8904122394945659</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3104115649757091</v>
+        <v>0.3051444315924101</v>
       </c>
       <c r="E19">
-        <v>0.3849545253254831</v>
+        <v>0.3732356602783682</v>
       </c>
       <c r="F19">
-        <v>6.50218585983535</v>
+        <v>6.456062398914241</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006884913721285779</v>
       </c>
       <c r="H19">
-        <v>0.5203675740125036</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1340039184171395</v>
+        <v>0.5264918469492628</v>
       </c>
       <c r="J19">
-        <v>4.894494959365829</v>
+        <v>0.1297186488534052</v>
       </c>
       <c r="K19">
-        <v>1.879778093000127</v>
+        <v>4.834105070128913</v>
       </c>
       <c r="L19">
-        <v>1.941993586149707</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.860196477132789</v>
+      </c>
+      <c r="M19">
+        <v>1.92510763518753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9312916422674675</v>
+        <v>0.9279176878212638</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3271958057629263</v>
+        <v>0.3214069156442037</v>
       </c>
       <c r="E20">
-        <v>0.4036607662915159</v>
+        <v>0.3915126847206665</v>
       </c>
       <c r="F20">
-        <v>6.817877256802859</v>
+        <v>6.765644218486386</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006817932271454507</v>
       </c>
       <c r="H20">
-        <v>0.5282260529409371</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1394353715588004</v>
+        <v>0.5339098574215058</v>
       </c>
       <c r="J20">
-        <v>5.130764290624484</v>
+        <v>0.1350419571026578</v>
       </c>
       <c r="K20">
-        <v>1.97214701686454</v>
+        <v>5.067016716311059</v>
       </c>
       <c r="L20">
-        <v>2.034099753055514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.95124940688936</v>
+      </c>
+      <c r="M20">
+        <v>2.016130652898283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.060289120033104</v>
+        <v>1.056354246885064</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3880905878479979</v>
+        <v>0.3804030079139977</v>
       </c>
       <c r="E21">
-        <v>0.4705126697573974</v>
+        <v>0.4567763940542591</v>
       </c>
       <c r="F21">
-        <v>7.951065604510632</v>
+        <v>7.876415549194746</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006588298667667296</v>
       </c>
       <c r="H21">
-        <v>0.5602941975549882</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.158755605939195</v>
+        <v>0.5643763982305714</v>
       </c>
       <c r="J21">
-        <v>5.963930528202383</v>
+        <v>0.1539571195103946</v>
       </c>
       <c r="K21">
-        <v>2.299231343145522</v>
+        <v>5.887826402099165</v>
       </c>
       <c r="L21">
-        <v>2.357796802675111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>2.273479110217195</v>
+      </c>
+      <c r="M21">
+        <v>2.335840288478309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.146910232528256</v>
+        <v>1.142567751859701</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4322332004986293</v>
+        <v>0.4231490263625091</v>
       </c>
       <c r="E22">
-        <v>0.5181417375665518</v>
+        <v>0.5032116879781299</v>
       </c>
       <c r="F22">
-        <v>8.760665139448236</v>
+        <v>8.669352063696806</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006433101058688601</v>
       </c>
       <c r="H22">
-        <v>0.5864484401293808</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1724477445976547</v>
+        <v>0.589354952540873</v>
       </c>
       <c r="J22">
-        <v>6.546351920511029</v>
+        <v>0.1673400613868736</v>
       </c>
       <c r="K22">
-        <v>2.5290457765349</v>
+        <v>6.461023188109408</v>
       </c>
       <c r="L22">
-        <v>2.582954670540033</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>2.499659518221904</v>
+      </c>
+      <c r="M22">
+        <v>2.558020771326355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.100431462267039</v>
+        <v>1.096311324956929</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4082001189814264</v>
+        <v>0.3998793932251345</v>
       </c>
       <c r="E23">
-        <v>0.492287273546772</v>
+        <v>0.4780124311179037</v>
       </c>
       <c r="F23">
-        <v>8.321115306121413</v>
+        <v>8.23892860913088</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006516530627581578</v>
       </c>
       <c r="H23">
-        <v>0.5719403844444741</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.16502187594077</v>
+        <v>0.5754892628711374</v>
       </c>
       <c r="J23">
-        <v>6.231380479558908</v>
+        <v>0.1600843732739605</v>
       </c>
       <c r="K23">
-        <v>2.404649531499729</v>
+        <v>6.151108419198579</v>
       </c>
       <c r="L23">
-        <v>2.461311624885155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>2.377256256990179</v>
+      </c>
+      <c r="M23">
+        <v>2.438009867824519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9292152611837992</v>
+        <v>0.9258499734674501</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3262592529803783</v>
+        <v>0.3204994692969478</v>
       </c>
       <c r="E24">
-        <v>0.4026204646368328</v>
+        <v>0.3904964101117088</v>
       </c>
       <c r="F24">
-        <v>6.800300147161664</v>
+        <v>6.748408524267973</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006821624184491892</v>
       </c>
       <c r="H24">
-        <v>0.5277752878099449</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1391336308882778</v>
+        <v>0.5334836618371881</v>
       </c>
       <c r="J24">
-        <v>5.117659827320182</v>
+        <v>0.1347462857544848</v>
       </c>
       <c r="K24">
-        <v>1.967019218560623</v>
+        <v>5.054099995675813</v>
       </c>
       <c r="L24">
-        <v>2.028994592726576</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.946195230668792</v>
+      </c>
+      <c r="M24">
+        <v>2.011086061489138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.751637516611396</v>
+        <v>0.7489823901164527</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2507929730061988</v>
+        <v>0.2473922666387267</v>
       </c>
       <c r="E25">
-        <v>0.3172890263937234</v>
+        <v>0.3070793627212609</v>
       </c>
       <c r="F25">
-        <v>5.369022744881363</v>
+        <v>5.344565437592678</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007138653650143646</v>
       </c>
       <c r="H25">
-        <v>0.4967502193772759</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1142449094333777</v>
+        <v>0.5044501342693337</v>
       </c>
       <c r="J25">
-        <v>4.029129608921579</v>
+        <v>0.1103350194459516</v>
       </c>
       <c r="K25">
-        <v>1.543062182575952</v>
+        <v>3.980615767804352</v>
       </c>
       <c r="L25">
-        <v>1.603609352761111</v>
+        <v>1.528121865040603</v>
+      </c>
+      <c r="M25">
+        <v>1.590552275232099</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6225302910861217</v>
+        <v>1.292947699850004</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2001954481522716</v>
+        <v>0.01873643001323089</v>
       </c>
       <c r="E2">
-        <v>0.2511878383788115</v>
+        <v>0.61872053302816</v>
       </c>
       <c r="F2">
-        <v>4.421914316128635</v>
+        <v>2.036934680665823</v>
       </c>
       <c r="G2">
-        <v>0.0007369340273601072</v>
+        <v>0.0007612827210082647</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.49279199315135</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09379099354387321</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.247849241606062</v>
+        <v>1.767857014876427</v>
       </c>
       <c r="L2">
-        <v>1.245209276255807</v>
+        <v>0.5009125592327308</v>
       </c>
       <c r="M2">
-        <v>1.302234093921996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.3974995956791929</v>
+      </c>
+      <c r="N2">
+        <v>0.9623456372297492</v>
+      </c>
+      <c r="O2">
+        <v>1.615359832839445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5383749291253253</v>
+        <v>1.145256914820408</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.170963942105729</v>
+        <v>0.01889335372959877</v>
       </c>
       <c r="E3">
-        <v>0.2154708290788676</v>
+        <v>0.5541654067279751</v>
       </c>
       <c r="F3">
-        <v>3.843882757894278</v>
+        <v>1.795138304834381</v>
       </c>
       <c r="G3">
-        <v>0.0007526574347187509</v>
+        <v>0.000770343256084687</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.489461849856049</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08311970679430303</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.774695679189122</v>
+        <v>1.526669216153195</v>
       </c>
       <c r="L3">
-        <v>1.063757105346681</v>
+        <v>0.4334663524271036</v>
       </c>
       <c r="M3">
-        <v>1.115648135040082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3478935194629145</v>
+      </c>
+      <c r="N3">
+        <v>1.027707849835571</v>
+      </c>
+      <c r="O3">
+        <v>1.427929457833372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4872531430001033</v>
+        <v>1.056097470995724</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1540341931931835</v>
+        <v>0.01908552017198062</v>
       </c>
       <c r="E4">
-        <v>0.1942947434551598</v>
+        <v>0.515010832497623</v>
       </c>
       <c r="F4">
-        <v>3.506790346473025</v>
+        <v>1.651686803750124</v>
       </c>
       <c r="G4">
-        <v>0.0007624209571764266</v>
+        <v>0.0007760470597242755</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.489291888041457</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0767500290496308</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.492636471518722</v>
+        <v>1.380358536446693</v>
       </c>
       <c r="L4">
-        <v>0.956104044172406</v>
+        <v>0.392665416526242</v>
       </c>
       <c r="M4">
-        <v>1.004303556726008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3179127811899605</v>
+      </c>
+      <c r="N4">
+        <v>1.069434848969452</v>
+      </c>
+      <c r="O4">
+        <v>1.316985483927198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4665323109308446</v>
+        <v>1.020107821008168</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1473494021755641</v>
+        <v>0.01918573074502916</v>
       </c>
       <c r="E5">
-        <v>0.1858170141043161</v>
+        <v>0.4991497144871602</v>
       </c>
       <c r="F5">
-        <v>3.373221365314805</v>
+        <v>1.594345512086164</v>
       </c>
       <c r="G5">
-        <v>0.0007664352445144146</v>
+        <v>0.0007784087664769223</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4896461006462332</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07419005152441649</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.379437674448312</v>
+        <v>1.321104128038769</v>
       </c>
       <c r="L5">
-        <v>0.9130172124158378</v>
+        <v>0.3761706522433172</v>
       </c>
       <c r="M5">
-        <v>0.959599436250322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3058011041439173</v>
+      </c>
+      <c r="N5">
+        <v>1.086828574284476</v>
+      </c>
+      <c r="O5">
+        <v>1.272698236404821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4630976682586123</v>
+        <v>1.014151421186256</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1462512338730448</v>
+        <v>0.01920363354312826</v>
       </c>
       <c r="E6">
-        <v>0.1844174629451416</v>
+        <v>0.4965209806416198</v>
       </c>
       <c r="F6">
-        <v>3.351253732228514</v>
+        <v>1.584887492391985</v>
       </c>
       <c r="G6">
-        <v>0.0007671041764477234</v>
+        <v>0.0007788032380223859</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4897292155656814</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07376686144157318</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2.360736204119959</v>
+        <v>1.311285054676915</v>
       </c>
       <c r="L6">
-        <v>0.9059056509508991</v>
+        <v>0.3734390782173023</v>
       </c>
       <c r="M6">
-        <v>0.9522130933060353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3037959567492408</v>
+      </c>
+      <c r="N6">
+        <v>1.089740008856368</v>
+      </c>
+      <c r="O6">
+        <v>1.265396904909551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4869732748955471</v>
+        <v>1.055610760900606</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1539432230181461</v>
+        <v>0.0190867857040935</v>
       </c>
       <c r="E7">
-        <v>0.1941798412588085</v>
+        <v>0.5147965737122675</v>
       </c>
       <c r="F7">
-        <v>3.504974435181566</v>
+        <v>1.650909139932224</v>
       </c>
       <c r="G7">
-        <v>0.0007624749414995069</v>
+        <v>0.0007760787566663292</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4892950090437012</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07671537187024313</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>2.491103242964599</v>
+        <v>1.379558018413391</v>
       </c>
       <c r="L7">
-        <v>0.9555199883471914</v>
+        <v>0.3924424554988377</v>
       </c>
       <c r="M7">
-        <v>1.003698119798386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.317749028966567</v>
+      </c>
+      <c r="N7">
+        <v>1.069667863473472</v>
+      </c>
+      <c r="O7">
+        <v>1.316384619674025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5933821969739483</v>
+        <v>1.241682929819746</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1898775906023644</v>
+        <v>0.01876925832039689</v>
       </c>
       <c r="E8">
-        <v>0.2386910600327425</v>
+        <v>0.5963448046728033</v>
       </c>
       <c r="F8">
-        <v>4.218465117338752</v>
+        <v>1.952431974712368</v>
       </c>
       <c r="G8">
-        <v>0.0007423380509092105</v>
+        <v>0.0007643788767695615</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4912235743523254</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09006692453219856</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>3.08269899791938</v>
+        <v>1.684276020642841</v>
       </c>
       <c r="L8">
-        <v>1.181758136995228</v>
+        <v>0.4775164898552333</v>
       </c>
       <c r="M8">
-        <v>1.237139701809525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3802872423863661</v>
+      </c>
+      <c r="N8">
+        <v>0.9845445718732773</v>
+      </c>
+      <c r="O8">
+        <v>1.549800582391285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8078478419307658</v>
+        <v>1.620634626257981</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2707657746430385</v>
+        <v>0.01901917245217177</v>
       </c>
       <c r="E9">
-        <v>0.3341108193022393</v>
+        <v>0.7614664017476969</v>
       </c>
       <c r="F9">
-        <v>5.796704039995063</v>
+        <v>2.590773970905161</v>
       </c>
       <c r="G9">
-        <v>0.0007032703043090005</v>
+        <v>0.0007424499836406155</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5124846830125165</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1182785487165425</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>4.331268069299625</v>
+        <v>2.299977608867138</v>
       </c>
       <c r="L9">
-        <v>1.664240922001014</v>
+        <v>0.6502974989072641</v>
       </c>
       <c r="M9">
-        <v>1.72818406623891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5074370243757045</v>
+      </c>
+      <c r="N9">
+        <v>0.8308205678772633</v>
+      </c>
+      <c r="O9">
+        <v>2.046312455929424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9714350703125092</v>
+        <v>1.910718637266569</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3408073697608955</v>
+        <v>0.01991619142473411</v>
       </c>
       <c r="E10">
-        <v>0.4131441697597538</v>
+        <v>0.8881950164254633</v>
       </c>
       <c r="F10">
-        <v>7.133033146079896</v>
+        <v>3.100013655350494</v>
       </c>
       <c r="G10">
-        <v>0.0006740225320197006</v>
+        <v>0.0007267975740521811</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5433485293711087</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1413266911955979</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>5.340982486423343</v>
+        <v>2.769840821082681</v>
       </c>
       <c r="L10">
-        <v>2.058573562509324</v>
+        <v>0.7826106685398031</v>
       </c>
       <c r="M10">
-        <v>2.123032237037279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6047421571493743</v>
+      </c>
+      <c r="N10">
+        <v>0.7267745225151592</v>
+      </c>
+      <c r="O10">
+        <v>2.444180272099146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.047910093212153</v>
+        <v>2.046013965422617</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3763583230344238</v>
+        <v>0.02052845303918716</v>
       </c>
       <c r="E11">
-        <v>0.4523485931071747</v>
+        <v>0.9476328385081842</v>
       </c>
       <c r="F11">
-        <v>7.800873166995075</v>
+        <v>3.343472911756351</v>
       </c>
       <c r="G11">
-        <v>0.0006603436821763049</v>
+        <v>0.0007197345876509553</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5621288193992413</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1526779934641489</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>5.832691411375066</v>
+        <v>2.989106284218053</v>
       </c>
       <c r="L11">
-        <v>2.251771603658568</v>
+        <v>0.8444264119734157</v>
       </c>
       <c r="M11">
-        <v>2.314420147071885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.6501479006681663</v>
+      </c>
+      <c r="N11">
+        <v>0.6815890946405836</v>
+      </c>
+      <c r="O11">
+        <v>2.634857884380423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.077249344398979</v>
+        <v>2.097802379890766</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3905176947707503</v>
+        <v>0.02079466004121144</v>
       </c>
       <c r="E12">
-        <v>0.4678221605670458</v>
+        <v>0.9704592374357759</v>
       </c>
       <c r="F12">
-        <v>8.064936988326679</v>
+        <v>3.437663017303976</v>
       </c>
       <c r="G12">
-        <v>0.0006550798372695343</v>
+        <v>0.0007170641628541734</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5700889375822342</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1571456864749088</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>6.02500899416745</v>
+        <v>3.07309956910288</v>
       </c>
       <c r="L12">
-        <v>2.327527668110093</v>
+        <v>0.868112805666243</v>
       </c>
       <c r="M12">
-        <v>2.389099824682759</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.6675344438981341</v>
+      </c>
+      <c r="N12">
+        <v>0.6648081317456498</v>
+      </c>
+      <c r="O12">
+        <v>2.708701519463531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.070912115803139</v>
+        <v>2.08662282295569</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3874339227600103</v>
+        <v>0.02073571065938751</v>
       </c>
       <c r="E13">
-        <v>0.4644585401239141</v>
+        <v>0.9655278996462187</v>
       </c>
       <c r="F13">
-        <v>8.007519435416384</v>
+        <v>3.417283381159194</v>
       </c>
       <c r="G13">
-        <v>0.0006562178280587909</v>
+        <v>0.0007176391726522214</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5683336039390596</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1561750702645632</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>5.983289121452913</v>
+        <v>3.054964352591568</v>
       </c>
       <c r="L13">
-        <v>2.311084816397781</v>
+        <v>0.8629983709126918</v>
       </c>
       <c r="M13">
-        <v>2.372908110636018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.6637808916543548</v>
+      </c>
+      <c r="N13">
+        <v>0.6684071781350676</v>
+      </c>
+      <c r="O13">
+        <v>2.692720794888189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.050315670718987</v>
+        <v>2.0502630377336</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3775080885605462</v>
+        <v>0.02054963377831598</v>
       </c>
       <c r="E14">
-        <v>0.4536079049252422</v>
+        <v>0.9495040046085421</v>
       </c>
       <c r="F14">
-        <v>7.822356360544148</v>
+        <v>3.351180074004304</v>
       </c>
       <c r="G14">
-        <v>0.0006599125150582539</v>
+        <v>0.0007195148320808809</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5627655507803269</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1530418468612496</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>5.848380718898284</v>
+        <v>2.995996119878924</v>
       </c>
       <c r="L14">
-        <v>2.257947839293337</v>
+        <v>0.8463692546164623</v>
       </c>
       <c r="M14">
-        <v>2.320516344794513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6515742704074015</v>
+      </c>
+      <c r="N14">
+        <v>0.6802017741968627</v>
+      </c>
+      <c r="O14">
+        <v>2.64089867179996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.037752119635087</v>
+        <v>2.028066310225597</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3715249359776607</v>
+        <v>0.02044029354335564</v>
       </c>
       <c r="E15">
-        <v>0.4470490647568468</v>
+        <v>0.9397324023471185</v>
       </c>
       <c r="F15">
-        <v>7.71048310523372</v>
+        <v>3.310959697808329</v>
       </c>
       <c r="G15">
-        <v>0.0006621636135994361</v>
+        <v>0.0007206641400119081</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5594713069779118</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1511462969878288</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>5.76659396823311</v>
+        <v>2.96000712555545</v>
       </c>
       <c r="L15">
-        <v>2.225759569777395</v>
+        <v>0.8362210866453381</v>
       </c>
       <c r="M15">
-        <v>2.28873015426737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6441233219826117</v>
+      </c>
+      <c r="N15">
+        <v>0.6874699278454774</v>
+      </c>
+      <c r="O15">
+        <v>2.609377391843168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9664853089311976</v>
+        <v>1.901950101005582</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3385712454195158</v>
+        <v>0.01988069542483828</v>
       </c>
       <c r="E16">
-        <v>0.4106599444934389</v>
+        <v>0.8843516135567029</v>
       </c>
       <c r="F16">
-        <v>7.090793863651754</v>
+        <v>3.08436516422131</v>
       </c>
       <c r="G16">
-        <v>0.0006749065905058199</v>
+        <v>0.0007272599766383206</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5422296904450477</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1406057526134674</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>5.309614120792872</v>
+        <v>2.755636213328771</v>
       </c>
       <c r="L16">
-        <v>2.046273337560848</v>
+        <v>0.7786072234002575</v>
       </c>
       <c r="M16">
-        <v>2.110801632062689</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6018000772803234</v>
+      </c>
+      <c r="N16">
+        <v>0.7297724279759601</v>
+      </c>
+      <c r="O16">
+        <v>2.431934077109389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9233453123906656</v>
+        <v>1.825486656862751</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3194019803130885</v>
+        <v>0.01959299489752198</v>
       </c>
       <c r="E17">
-        <v>0.3892667487597805</v>
+        <v>0.8508758131456133</v>
       </c>
       <c r="F17">
-        <v>6.727557091536994</v>
+        <v>2.948579567388663</v>
       </c>
       <c r="G17">
-        <v>0.000682609632725675</v>
+        <v>0.0007313182897212833</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5329701012610144</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.134388482174991</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>5.038465753980262</v>
+        <v>2.631787327404425</v>
       </c>
       <c r="L17">
-        <v>1.940078432751434</v>
+        <v>0.7437089604518121</v>
       </c>
       <c r="M17">
-        <v>2.004979619844278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.5761473411938169</v>
+      </c>
+      <c r="N17">
+        <v>0.7562874906193906</v>
+      </c>
+      <c r="O17">
+        <v>2.325722278902376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8987199373583792</v>
+        <v>1.781815720902756</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3087109645398414</v>
+        <v>0.0194463935326219</v>
       </c>
       <c r="E18">
-        <v>0.3772558749897428</v>
+        <v>0.8317855036303854</v>
       </c>
       <c r="F18">
-        <v>6.524083786843249</v>
+        <v>2.871569888437079</v>
       </c>
       <c r="G18">
-        <v>0.0006870072880395039</v>
+        <v>0.0007336582008885488</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5280780125539337</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1308906451730536</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>4.885447057301178</v>
+        <v>2.561061044828961</v>
       </c>
       <c r="L18">
-        <v>1.880252562869686</v>
+        <v>0.723786430281308</v>
       </c>
       <c r="M18">
-        <v>1.945183129512685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.5614980719813616</v>
+      </c>
+      <c r="N18">
+        <v>0.7717387948525022</v>
+      </c>
+      <c r="O18">
+        <v>2.2655270156759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8904122394945659</v>
+        <v>1.767080389073186</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3051444315924101</v>
+        <v>0.01939986021201534</v>
       </c>
       <c r="E19">
-        <v>0.3732356602783682</v>
+        <v>0.8253483307147178</v>
       </c>
       <c r="F19">
-        <v>6.456062398914241</v>
+        <v>2.845674625026419</v>
       </c>
       <c r="G19">
-        <v>0.0006884913721285779</v>
+        <v>0.0007344515441186639</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5264918469492628</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1297186488534052</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>4.834105070128913</v>
+        <v>2.537196937438637</v>
       </c>
       <c r="L19">
-        <v>1.860196477132789</v>
+        <v>0.7170655232968102</v>
       </c>
       <c r="M19">
-        <v>1.92510763518753</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5565554022896677</v>
+      </c>
+      <c r="N19">
+        <v>0.7770041792741238</v>
+      </c>
+      <c r="O19">
+        <v>2.245292757597809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9279176878212638</v>
+        <v>1.833593844299827</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3214069156442037</v>
+        <v>0.01962163399159778</v>
       </c>
       <c r="E20">
-        <v>0.3915126847206665</v>
+        <v>0.8544219754213813</v>
       </c>
       <c r="F20">
-        <v>6.765644218486386</v>
+        <v>2.962919272189026</v>
       </c>
       <c r="G20">
-        <v>0.0006817932271454507</v>
+        <v>0.000730885715383442</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5339098574215058</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1350419571026578</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>5.067016716311059</v>
+        <v>2.644917508020129</v>
       </c>
       <c r="L20">
-        <v>1.95124940688936</v>
+        <v>0.7474081121161475</v>
       </c>
       <c r="M20">
-        <v>2.016130652898283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.5788670067254884</v>
+      </c>
+      <c r="N20">
+        <v>0.7534440161760951</v>
+      </c>
+      <c r="O20">
+        <v>2.336934421766571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.056354246885064</v>
+        <v>2.060927073267862</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3804030079139977</v>
+        <v>0.02060331250562442</v>
       </c>
       <c r="E21">
-        <v>0.4567763940542591</v>
+        <v>0.9542014211740053</v>
       </c>
       <c r="F21">
-        <v>7.876415549194746</v>
+        <v>3.370539387590895</v>
       </c>
       <c r="G21">
-        <v>0.0006588298667667296</v>
+        <v>0.0007189638277037239</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5643763982305714</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1539571195103946</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>5.887826402099165</v>
+        <v>3.013288932345887</v>
       </c>
       <c r="L21">
-        <v>2.273479110217195</v>
+        <v>0.8512456951944785</v>
       </c>
       <c r="M21">
-        <v>2.335840288478309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6551541848189544</v>
+      </c>
+      <c r="N21">
+        <v>0.6767282826548212</v>
+      </c>
+      <c r="O21">
+        <v>2.656073480849486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.142567751859701</v>
+        <v>2.212780183998404</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4231490263625091</v>
+        <v>0.02144813781650257</v>
       </c>
       <c r="E22">
-        <v>0.5032116879781299</v>
+        <v>1.021306816079388</v>
       </c>
       <c r="F22">
-        <v>8.669352063696806</v>
+        <v>3.64875944082533</v>
       </c>
       <c r="G22">
-        <v>0.0006433101058688601</v>
+        <v>0.0007111941524945431</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.589354952540873</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1673400613868736</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>6.461023188109408</v>
+        <v>3.25974782568936</v>
       </c>
       <c r="L22">
-        <v>2.499659518221904</v>
+        <v>0.9207561937465414</v>
       </c>
       <c r="M22">
-        <v>2.558020771326355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7061497069240374</v>
+      </c>
+      <c r="N22">
+        <v>0.6285242077564983</v>
+      </c>
+      <c r="O22">
+        <v>2.87434066796493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.096311324956929</v>
+        <v>2.131405734765963</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3998793932251345</v>
+        <v>0.02097675497126872</v>
       </c>
       <c r="E23">
-        <v>0.4780124311179037</v>
+        <v>0.9852948767759813</v>
       </c>
       <c r="F23">
-        <v>8.23892860913088</v>
+        <v>3.499075202041809</v>
       </c>
       <c r="G23">
-        <v>0.0006516530627581578</v>
+        <v>0.0007153404802823974</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5754892628711374</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1600843732739605</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>6.151108419198579</v>
+        <v>3.12762309759637</v>
       </c>
       <c r="L23">
-        <v>2.377256256990179</v>
+        <v>0.8834900327427135</v>
       </c>
       <c r="M23">
-        <v>2.438009867824519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6788179401153798</v>
+      </c>
+      <c r="N23">
+        <v>0.6540669143123409</v>
+      </c>
+      <c r="O23">
+        <v>2.756869171535229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9258499734674501</v>
+        <v>1.829927690522709</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3204994692969478</v>
+        <v>0.01960862806065578</v>
       </c>
       <c r="E24">
-        <v>0.3904964101117088</v>
+        <v>0.8528182759892715</v>
       </c>
       <c r="F24">
-        <v>6.748408524267973</v>
+        <v>2.956433026777773</v>
       </c>
       <c r="G24">
-        <v>0.0006821624184491892</v>
+        <v>0.0007310812609401252</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5334836618371881</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1347462857544848</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>5.054099995675813</v>
+        <v>2.638979882783502</v>
       </c>
       <c r="L24">
-        <v>1.946195230668792</v>
+        <v>0.7457352898946965</v>
       </c>
       <c r="M24">
-        <v>2.011086061489138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.5776371401884219</v>
+      </c>
+      <c r="N24">
+        <v>0.7547289064151375</v>
+      </c>
+      <c r="O24">
+        <v>2.331862728525451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7489823901164527</v>
+        <v>1.516313588713416</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2473922666387267</v>
+        <v>0.01884101518058401</v>
       </c>
       <c r="E25">
-        <v>0.3070793627212609</v>
+        <v>0.7160280082020876</v>
       </c>
       <c r="F25">
-        <v>5.344565437592678</v>
+        <v>2.411943285301746</v>
       </c>
       <c r="G25">
-        <v>0.0007138653650143646</v>
+        <v>0.0007482890216204352</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5044501342693337</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1103350194459516</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>3.980615767804352</v>
+        <v>2.130856831712748</v>
       </c>
       <c r="L25">
-        <v>1.528121865040603</v>
+        <v>0.6027515321698473</v>
       </c>
       <c r="M25">
-        <v>1.590552275232099</v>
+        <v>0.4724470930304534</v>
+      </c>
+      <c r="N25">
+        <v>0.8709118066558977</v>
+      </c>
+      <c r="O25">
+        <v>1.906939667234639</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.292947699850004</v>
+        <v>0.2679770632948504</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01873643001323089</v>
+        <v>0.3628891056393257</v>
       </c>
       <c r="E2">
-        <v>0.61872053302816</v>
+        <v>0.2595925300966968</v>
       </c>
       <c r="F2">
-        <v>2.036934680665823</v>
+        <v>6.557208099901629</v>
       </c>
       <c r="G2">
-        <v>0.0007612827210082647</v>
+        <v>0.0007978882666320176</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.767857014876427</v>
+        <v>1.832518163168032</v>
       </c>
       <c r="L2">
-        <v>0.5009125592327308</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3974995956791929</v>
+        <v>0.7676519359524008</v>
       </c>
       <c r="N2">
-        <v>0.9623456372297492</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.615359832839445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.145256914820408</v>
+        <v>0.2335126732751576</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01889335372959877</v>
+        <v>0.3252809339453506</v>
       </c>
       <c r="E3">
-        <v>0.5541654067279751</v>
+        <v>0.2247799542879676</v>
       </c>
       <c r="F3">
-        <v>1.795138304834381</v>
+        <v>5.783387251656251</v>
       </c>
       <c r="G3">
-        <v>0.000770343256084687</v>
+        <v>0.0008085671254787605</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.526669216153195</v>
+        <v>1.559425739421471</v>
       </c>
       <c r="L3">
-        <v>0.4334663524271036</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3478935194629145</v>
+        <v>0.6571600148803398</v>
       </c>
       <c r="N3">
-        <v>1.027707849835571</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.427929457833372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.056097470995724</v>
+        <v>0.212656794453622</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01908552017198062</v>
+        <v>0.3026689243445588</v>
       </c>
       <c r="E4">
-        <v>0.515010832497623</v>
+        <v>0.2039151821660354</v>
       </c>
       <c r="F4">
-        <v>1.651686803750124</v>
+        <v>5.31892432087713</v>
       </c>
       <c r="G4">
-        <v>0.0007760470597242755</v>
+        <v>0.0008152503845685707</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.380358536446693</v>
+        <v>1.396865996933428</v>
       </c>
       <c r="L4">
-        <v>0.392665416526242</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3179127811899605</v>
+        <v>0.591189485772631</v>
       </c>
       <c r="N4">
-        <v>1.069434848969452</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.316985483927198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.020107821008168</v>
+        <v>0.2042250985723655</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01918573074502916</v>
+        <v>0.2935540960363596</v>
       </c>
       <c r="E5">
-        <v>0.4991497144871602</v>
+        <v>0.1955219712140206</v>
       </c>
       <c r="F5">
-        <v>1.594345512086164</v>
+        <v>5.131930487436904</v>
       </c>
       <c r="G5">
-        <v>0.0007784087664769223</v>
+        <v>0.0008180088754399733</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.321104128038769</v>
+        <v>1.331714533412196</v>
       </c>
       <c r="L5">
-        <v>0.3761706522433172</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3058011041439173</v>
+        <v>0.5647072300455207</v>
       </c>
       <c r="N5">
-        <v>1.086828574284476</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.272698236404821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.014151421186256</v>
+        <v>0.2028288200924351</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01920363354312826</v>
+        <v>0.2920460418270636</v>
       </c>
       <c r="E6">
-        <v>0.4965209806416198</v>
+        <v>0.194134372687536</v>
       </c>
       <c r="F6">
-        <v>1.584887492391985</v>
+        <v>5.101006920968615</v>
       </c>
       <c r="G6">
-        <v>0.0007788032380223859</v>
+        <v>0.0008184691234131802</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.311285054676915</v>
+        <v>1.320956918912316</v>
       </c>
       <c r="L6">
-        <v>0.3734390782173023</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3037959567492408</v>
+        <v>0.560332220653649</v>
       </c>
       <c r="N6">
-        <v>1.089740008856368</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.265396904909551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.055610760900606</v>
+        <v>0.2125428213924323</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0190867857040935</v>
+        <v>0.3025456206762982</v>
       </c>
       <c r="E7">
-        <v>0.5147965737122675</v>
+        <v>0.2038015692403761</v>
       </c>
       <c r="F7">
-        <v>1.650909139932224</v>
+        <v>5.316393733521892</v>
       </c>
       <c r="G7">
-        <v>0.0007760787566663292</v>
+        <v>0.0008152874406628374</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.379558018413391</v>
+        <v>1.39598315742353</v>
       </c>
       <c r="L7">
-        <v>0.3924424554988377</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.317749028966567</v>
+        <v>0.5908307983367393</v>
       </c>
       <c r="N7">
-        <v>1.069667863473472</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.316384619674025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.241682929819746</v>
+        <v>0.2560243234121771</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01876925832039689</v>
+        <v>0.3498090126513773</v>
       </c>
       <c r="E8">
-        <v>0.5963448046728033</v>
+        <v>0.2474711668135328</v>
       </c>
       <c r="F8">
-        <v>1.952431974712368</v>
+        <v>6.287924013266746</v>
       </c>
       <c r="G8">
-        <v>0.0007643788767695615</v>
+        <v>0.0008015461548040012</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.684276020642841</v>
+        <v>1.737168846333248</v>
       </c>
       <c r="L8">
-        <v>0.4775164898552333</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3802872423863661</v>
+        <v>0.7291214611916317</v>
       </c>
       <c r="N8">
-        <v>0.9845445718732773</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.549800582391285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.620634626257981</v>
+        <v>0.3441991921703789</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01901917245217177</v>
+        <v>0.4473731845762643</v>
       </c>
       <c r="E9">
-        <v>0.7614664017476969</v>
+        <v>0.3381365678121995</v>
       </c>
       <c r="F9">
-        <v>2.590773970905161</v>
+        <v>8.298570756758323</v>
       </c>
       <c r="G9">
-        <v>0.0007424499836406155</v>
+        <v>0.0007754361731809723</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.299977608867138</v>
+        <v>2.45701246243874</v>
       </c>
       <c r="L9">
-        <v>0.6502974989072641</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5074370243757045</v>
+        <v>1.018774645660137</v>
       </c>
       <c r="N9">
-        <v>0.8308205678772633</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.046312455929424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.910718637266569</v>
+        <v>0.4115256050742033</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01991619142473411</v>
+        <v>0.5237839045332464</v>
       </c>
       <c r="E10">
-        <v>0.8881950164254633</v>
+        <v>0.4094167618233868</v>
       </c>
       <c r="F10">
-        <v>3.100013655350494</v>
+        <v>9.874118402776418</v>
       </c>
       <c r="G10">
-        <v>0.0007267975740521811</v>
+        <v>0.0007564922807372857</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.769840821082681</v>
+        <v>3.03361973156089</v>
       </c>
       <c r="L10">
-        <v>0.7826106685398031</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6047421571493743</v>
+        <v>1.248785501739306</v>
       </c>
       <c r="N10">
-        <v>0.7267745225151592</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.444180272099146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.046013965422617</v>
+        <v>0.4429106021856484</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02052845303918716</v>
+        <v>0.560054976673996</v>
       </c>
       <c r="E11">
-        <v>0.9476328385081842</v>
+        <v>0.4432991165762701</v>
       </c>
       <c r="F11">
-        <v>3.343472911756351</v>
+        <v>10.62158106499959</v>
       </c>
       <c r="G11">
-        <v>0.0007197345876509553</v>
+        <v>0.0007478517164847714</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.989106284218053</v>
+        <v>3.310997154867891</v>
       </c>
       <c r="L11">
-        <v>0.8444264119734157</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6501479006681663</v>
+        <v>1.358813308994414</v>
       </c>
       <c r="N11">
-        <v>0.6815890946405836</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.634857884380423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.097802379890766</v>
+        <v>0.4549243668937493</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02079466004121144</v>
+        <v>0.574056744400167</v>
       </c>
       <c r="E12">
-        <v>0.9704592374357759</v>
+        <v>0.4563842736110644</v>
       </c>
       <c r="F12">
-        <v>3.437663017303976</v>
+        <v>10.91000432069188</v>
       </c>
       <c r="G12">
-        <v>0.0007170641628541734</v>
+        <v>0.0007445688448651488</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.07309956910288</v>
+        <v>3.418689823630984</v>
       </c>
       <c r="L12">
-        <v>0.868112805666243</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6675344438981341</v>
+        <v>1.401425088537394</v>
       </c>
       <c r="N12">
-        <v>0.6648081317456498</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.708701519463531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.08662282295569</v>
+        <v>0.4523309001094162</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02073571065938751</v>
+        <v>0.5710284635485152</v>
       </c>
       <c r="E13">
-        <v>0.9655278996462187</v>
+        <v>0.4535540120125461</v>
       </c>
       <c r="F13">
-        <v>3.417283381159194</v>
+        <v>10.84763095996061</v>
       </c>
       <c r="G13">
-        <v>0.0007176391726522214</v>
+        <v>0.0007452764903786489</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.054964352591568</v>
+        <v>3.395369316473563</v>
       </c>
       <c r="L13">
-        <v>0.8629983709126918</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6637808916543548</v>
+        <v>1.392202687966247</v>
       </c>
       <c r="N13">
-        <v>0.6684071781350676</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.692720794888189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.0502630377336</v>
+        <v>0.4438962717070467</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02054963377831598</v>
+        <v>0.5612012490291249</v>
       </c>
       <c r="E14">
-        <v>0.9495040046085421</v>
+        <v>0.4443702470107667</v>
       </c>
       <c r="F14">
-        <v>3.351180074004304</v>
+        <v>10.64519596733595</v>
       </c>
       <c r="G14">
-        <v>0.0007195148320808809</v>
+        <v>0.0007475818993425081</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.995996119878924</v>
+        <v>3.319800718704755</v>
       </c>
       <c r="L14">
-        <v>0.8463692546164623</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6515742704074015</v>
+        <v>1.362298933310853</v>
       </c>
       <c r="N14">
-        <v>0.6802017741968627</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.64089867179996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.028066310225597</v>
+        <v>0.4387472580514498</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02044029354335564</v>
+        <v>0.5552181533848568</v>
       </c>
       <c r="E15">
-        <v>0.9397324023471185</v>
+        <v>0.4387795762383533</v>
       </c>
       <c r="F15">
-        <v>3.310959697808329</v>
+        <v>10.52193015686737</v>
       </c>
       <c r="G15">
-        <v>0.0007206641400119081</v>
+        <v>0.0007489923625613445</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.96000712555545</v>
+        <v>3.273874804471177</v>
       </c>
       <c r="L15">
-        <v>0.8362210866453381</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6441233219826117</v>
+        <v>1.344110948460013</v>
       </c>
       <c r="N15">
-        <v>0.6874699278454774</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.609377391843168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.901950101005582</v>
+        <v>0.4094914083580363</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01988069542483828</v>
+        <v>0.5214479315795018</v>
       </c>
       <c r="E16">
-        <v>0.8843516135567029</v>
+        <v>0.407235453879089</v>
       </c>
       <c r="F16">
-        <v>3.08436516422131</v>
+        <v>9.825966168483376</v>
       </c>
       <c r="G16">
-        <v>0.0007272599766383206</v>
+        <v>0.0007570558845251869</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.755636213328771</v>
+        <v>3.015835377263159</v>
       </c>
       <c r="L16">
-        <v>0.7786072234002575</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6018000772803234</v>
+        <v>1.241717345581037</v>
       </c>
       <c r="N16">
-        <v>0.7297724279759601</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.431934077109389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.825486656862751</v>
+        <v>0.3917512553505844</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01959299489752198</v>
+        <v>0.5011504477906783</v>
       </c>
       <c r="E17">
-        <v>0.8508758131456133</v>
+        <v>0.3882868232805166</v>
       </c>
       <c r="F17">
-        <v>2.948579567388663</v>
+        <v>9.407513595720786</v>
       </c>
       <c r="G17">
-        <v>0.0007313182897212833</v>
+        <v>0.0007619917627057493</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.631787327404425</v>
+        <v>2.861715866734301</v>
       </c>
       <c r="L17">
-        <v>0.7437089604518121</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5761473411938169</v>
+        <v>1.180395473115361</v>
       </c>
       <c r="N17">
-        <v>0.7562874906193906</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.325722278902376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.781815720902756</v>
+        <v>0.3816175616576913</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0194463935326219</v>
+        <v>0.489614702516235</v>
       </c>
       <c r="E18">
-        <v>0.8317855036303854</v>
+        <v>0.3775220313767491</v>
       </c>
       <c r="F18">
-        <v>2.871569888437079</v>
+        <v>9.169657514183314</v>
       </c>
       <c r="G18">
-        <v>0.0007336582008885488</v>
+        <v>0.0007648291226043977</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.561061044828961</v>
+        <v>2.774455189470018</v>
       </c>
       <c r="L18">
-        <v>0.723786430281308</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5614980719813616</v>
+        <v>1.14562057679283</v>
       </c>
       <c r="N18">
-        <v>0.7717387948525022</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.2655270156759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.767080389073186</v>
+        <v>0.3781979262603841</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01939986021201534</v>
+        <v>0.4857313827217808</v>
       </c>
       <c r="E19">
-        <v>0.8253483307147178</v>
+        <v>0.3738990220876559</v>
       </c>
       <c r="F19">
-        <v>2.845674625026419</v>
+        <v>9.089582720331407</v>
       </c>
       <c r="G19">
-        <v>0.0007344515441186639</v>
+        <v>0.0007657897331181094</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.537196937438637</v>
+        <v>2.745134713400319</v>
       </c>
       <c r="L19">
-        <v>0.7170655232968102</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5565554022896677</v>
+        <v>1.13392686729712</v>
       </c>
       <c r="N19">
-        <v>0.7770041792741238</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.245292757597809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.833593844299827</v>
+        <v>0.3936323482080866</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01962163399159778</v>
+        <v>0.5032964525390469</v>
       </c>
       <c r="E20">
-        <v>0.8544219754213813</v>
+        <v>0.3902897723904246</v>
       </c>
       <c r="F20">
-        <v>2.962919272189026</v>
+        <v>9.451759664000718</v>
       </c>
       <c r="G20">
-        <v>0.000730885715383442</v>
+        <v>0.0007614665488346043</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.644917508020129</v>
+        <v>2.877975599856313</v>
       </c>
       <c r="L20">
-        <v>0.7474081121161475</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5788670067254884</v>
+        <v>1.186870841586149</v>
       </c>
       <c r="N20">
-        <v>0.7534440161760951</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.336934421766571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.060927073267862</v>
+        <v>0.4463700518173965</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02060331250562442</v>
+        <v>0.5640800616064325</v>
       </c>
       <c r="E21">
-        <v>0.9542014211740053</v>
+        <v>0.4470604270440717</v>
       </c>
       <c r="F21">
-        <v>3.370539387590895</v>
+        <v>10.70450162576685</v>
       </c>
       <c r="G21">
-        <v>0.0007189638277037239</v>
+        <v>0.0007469051077314397</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.013288932345887</v>
+        <v>3.341920585302233</v>
       </c>
       <c r="L21">
-        <v>0.8512456951944785</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6551541848189544</v>
+        <v>1.371055168026885</v>
       </c>
       <c r="N21">
-        <v>0.6767282826548212</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.656073480849486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.212780183998404</v>
+        <v>0.481600522395226</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02144813781650257</v>
+        <v>0.6053904008034863</v>
       </c>
       <c r="E22">
-        <v>1.021306816079388</v>
+        <v>0.4856752847606529</v>
       </c>
       <c r="F22">
-        <v>3.64875944082533</v>
+        <v>11.55515669630205</v>
       </c>
       <c r="G22">
-        <v>0.0007111941524945431</v>
+        <v>0.0007373203142323167</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.25974782568936</v>
+        <v>3.660919167978363</v>
       </c>
       <c r="L22">
-        <v>0.9207561937465414</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7061497069240374</v>
+        <v>1.497053657842471</v>
       </c>
       <c r="N22">
-        <v>0.6285242077564983</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.87434066796493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.131405734765963</v>
+        <v>0.4627200389758315</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02097675497126872</v>
+        <v>0.5831783930600238</v>
       </c>
       <c r="E23">
-        <v>0.9852948767759813</v>
+        <v>0.4649101506727149</v>
       </c>
       <c r="F23">
-        <v>3.499075202041809</v>
+        <v>11.09786020503071</v>
       </c>
       <c r="G23">
-        <v>0.0007153404802823974</v>
+        <v>0.0007424450319386308</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.12762309759637</v>
+        <v>3.489030914152607</v>
       </c>
       <c r="L23">
-        <v>0.8834900327427135</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6788179401153798</v>
+        <v>1.429225540553588</v>
       </c>
       <c r="N23">
-        <v>0.6540669143123409</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.756869171535229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.829927690522709</v>
+        <v>0.3927817040188444</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01960862806065578</v>
+        <v>0.5023258314017198</v>
       </c>
       <c r="E24">
-        <v>0.8528182759892715</v>
+        <v>0.389383840482715</v>
       </c>
       <c r="F24">
-        <v>2.956433026777773</v>
+        <v>9.43174762054548</v>
       </c>
       <c r="G24">
-        <v>0.0007310812609401252</v>
+        <v>0.0007617039984564021</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.638979882783502</v>
+        <v>2.870620421556538</v>
       </c>
       <c r="L24">
-        <v>0.7457352898946965</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5776371401884219</v>
+        <v>1.183941845236788</v>
       </c>
       <c r="N24">
-        <v>0.7547289064151375</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.331862728525451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.516313588713416</v>
+        <v>0.3199605014493017</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01884101518058401</v>
+        <v>0.4202919260102647</v>
       </c>
       <c r="E25">
-        <v>0.7160280082020876</v>
+        <v>0.312920155393634</v>
       </c>
       <c r="F25">
-        <v>2.411943285301746</v>
+        <v>7.740145150638057</v>
       </c>
       <c r="G25">
-        <v>0.0007482890216204352</v>
+        <v>0.000782435548557503</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.130856831712748</v>
+        <v>2.25527278556504</v>
       </c>
       <c r="L25">
-        <v>0.6027515321698473</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4724470930304534</v>
+        <v>0.937882473846642</v>
       </c>
       <c r="N25">
-        <v>0.8709118066558977</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.906939667234639</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2679770632948504</v>
+        <v>0.1422834409152216</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3628891056393257</v>
+        <v>0.1945146085939768</v>
       </c>
       <c r="E2">
-        <v>0.2595925300966968</v>
+        <v>0.1112616825839581</v>
       </c>
       <c r="F2">
-        <v>6.557208099901629</v>
+        <v>3.552228279157816</v>
       </c>
       <c r="G2">
-        <v>0.0007978882666320176</v>
+        <v>0.002512203253484145</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.832518163168032</v>
+        <v>0.6729235202556652</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7676519359524008</v>
+        <v>0.3118672535452305</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2335126732751576</v>
+        <v>0.1330520610950003</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3252809339453506</v>
+        <v>0.1834900375207127</v>
       </c>
       <c r="E3">
-        <v>0.2247799542879676</v>
+        <v>0.1020511602801264</v>
       </c>
       <c r="F3">
-        <v>5.783387251656251</v>
+        <v>3.339602839758271</v>
       </c>
       <c r="G3">
-        <v>0.0008085671254787605</v>
+        <v>0.002518234767026999</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.559425739421471</v>
+        <v>0.6195835765612685</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6571600148803398</v>
+        <v>0.2868217909492969</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.212656794453622</v>
+        <v>0.127461414131659</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3026689243445588</v>
+        <v>0.1766980199772092</v>
       </c>
       <c r="E4">
-        <v>0.2039151821660354</v>
+        <v>0.09644059510097946</v>
       </c>
       <c r="F4">
-        <v>5.31892432087713</v>
+        <v>3.209681841570074</v>
       </c>
       <c r="G4">
-        <v>0.0008152503845685707</v>
+        <v>0.002522125131106571</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.396865996933428</v>
+        <v>0.5877094959811302</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.591189485772631</v>
+        <v>0.2717181039332317</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2042250985723655</v>
+        <v>0.1252026710787959</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2935540960363596</v>
+        <v>0.1739239692793859</v>
       </c>
       <c r="E5">
-        <v>0.1955219712140206</v>
+        <v>0.09416515595338382</v>
       </c>
       <c r="F5">
-        <v>5.131930487436904</v>
+        <v>3.156889713247068</v>
       </c>
       <c r="G5">
-        <v>0.0008180088754399733</v>
+        <v>0.002523757690054559</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.331714533412196</v>
+        <v>0.5749380251172056</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5647072300455207</v>
+        <v>0.2656311202340262</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2028288200924351</v>
+        <v>0.124828786180359</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2920460418270636</v>
+        <v>0.1734629485269465</v>
       </c>
       <c r="E6">
-        <v>0.194134372687536</v>
+        <v>0.09378797029230412</v>
       </c>
       <c r="F6">
-        <v>5.101006920968615</v>
+        <v>3.148132577307138</v>
       </c>
       <c r="G6">
-        <v>0.0008184691234131802</v>
+        <v>0.002524031631692878</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.320956918912316</v>
+        <v>0.5728303798741763</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.560332220653649</v>
+        <v>0.2646244501584079</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2125428213924323</v>
+        <v>0.127430872994907</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3025456206762982</v>
+        <v>0.1766606341098509</v>
       </c>
       <c r="E7">
-        <v>0.2038015692403761</v>
+        <v>0.09640986399422502</v>
       </c>
       <c r="F7">
-        <v>5.316393733521892</v>
+        <v>3.208969263507385</v>
       </c>
       <c r="G7">
-        <v>0.0008152874406628374</v>
+        <v>0.002522146956954078</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.39598315742353</v>
+        <v>0.5875363788548498</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5908307983367393</v>
+        <v>0.2716357392808035</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2560243234121771</v>
+        <v>0.1390843891877438</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3498090126513773</v>
+        <v>0.1907177859272053</v>
       </c>
       <c r="E8">
-        <v>0.2474711668135328</v>
+        <v>0.1080764038067414</v>
       </c>
       <c r="F8">
-        <v>6.287924013266746</v>
+        <v>3.478779487155407</v>
       </c>
       <c r="G8">
-        <v>0.0008015461548040012</v>
+        <v>0.002514244220676529</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.737168846333248</v>
+        <v>0.654348065628426</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7291214611916317</v>
+        <v>0.3031739716825612</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3441991921703789</v>
+        <v>0.1625523457950493</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4473731845762643</v>
+        <v>0.2181256561564453</v>
       </c>
       <c r="E9">
-        <v>0.3381365678121995</v>
+        <v>0.1313258163943587</v>
       </c>
       <c r="F9">
-        <v>8.298570756758323</v>
+        <v>4.01324113747205</v>
       </c>
       <c r="G9">
-        <v>0.0007754361731809723</v>
+        <v>0.002500222236873449</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.45701246243874</v>
+        <v>0.7924689014371609</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.018774645660137</v>
+        <v>0.3672502588964122</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4115256050742033</v>
+        <v>0.1801727575816301</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5237839045332464</v>
+        <v>0.2381999421613159</v>
       </c>
       <c r="E10">
-        <v>0.4094167618233868</v>
+        <v>0.1486581019323623</v>
       </c>
       <c r="F10">
-        <v>9.874118402776418</v>
+        <v>4.409707060345312</v>
       </c>
       <c r="G10">
-        <v>0.0007564922807372857</v>
+        <v>0.002490807792589794</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.03361973156089</v>
+        <v>0.8984926994328362</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.248785501739306</v>
+        <v>0.4157661074989107</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4429106021856484</v>
+        <v>0.188271806009439</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.560054976673996</v>
+        <v>0.2473262583074813</v>
       </c>
       <c r="E11">
-        <v>0.4432991165762701</v>
+        <v>0.1566029697515248</v>
       </c>
       <c r="F11">
-        <v>10.62158106499959</v>
+        <v>4.59101171408588</v>
       </c>
       <c r="G11">
-        <v>0.0007478517164847714</v>
+        <v>0.002486715087166504</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.310997154867891</v>
+        <v>0.9477613465671482</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.358813308994414</v>
+        <v>0.4381675421705893</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4549243668937493</v>
+        <v>0.1913507336319356</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.574056744400167</v>
+        <v>0.2507819380697356</v>
       </c>
       <c r="E12">
-        <v>0.4563842736110644</v>
+        <v>0.159620575943336</v>
       </c>
       <c r="F12">
-        <v>10.91000432069188</v>
+        <v>4.659812645498675</v>
       </c>
       <c r="G12">
-        <v>0.0007445688448651488</v>
+        <v>0.002485192407743596</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.418689823630984</v>
+        <v>0.9665711620894797</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.401425088537394</v>
+        <v>0.4466994094565706</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4523309001094162</v>
+        <v>0.190687098092738</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5710284635485152</v>
+        <v>0.2500376983520027</v>
       </c>
       <c r="E13">
-        <v>0.4535540120125461</v>
+        <v>0.1589702714787933</v>
       </c>
       <c r="F13">
-        <v>10.84763095996061</v>
+        <v>4.644988563044762</v>
       </c>
       <c r="G13">
-        <v>0.0007452764903786489</v>
+        <v>0.002485519139669545</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.395369316473563</v>
+        <v>0.9625132756019639</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.392202687966247</v>
+        <v>0.4448597222477133</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4438962717070467</v>
+        <v>0.1885248708795899</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5612012490291249</v>
+        <v>0.2476105611937953</v>
       </c>
       <c r="E14">
-        <v>0.4443702470107667</v>
+        <v>0.1568510462948609</v>
       </c>
       <c r="F14">
-        <v>10.64519596733595</v>
+        <v>4.596669059108137</v>
       </c>
       <c r="G14">
-        <v>0.0007475818993425081</v>
+        <v>0.002486589272397973</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.319800718704755</v>
+        <v>0.9493057571929171</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.362298933310853</v>
+        <v>0.4388684759351946</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4387472580514498</v>
+        <v>0.1872020061416748</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5552181533848568</v>
+        <v>0.2461238522488429</v>
       </c>
       <c r="E15">
-        <v>0.4387795762383533</v>
+        <v>0.1555541506560658</v>
       </c>
       <c r="F15">
-        <v>10.52193015686737</v>
+        <v>4.567091068171635</v>
       </c>
       <c r="G15">
-        <v>0.0007489923625613445</v>
+        <v>0.002487248288574109</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.273874804471177</v>
+        <v>0.9412357843961274</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.344110948460013</v>
+        <v>0.4352050753321777</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4094914083580363</v>
+        <v>0.1796451442374973</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5214479315795018</v>
+        <v>0.2376034500542801</v>
       </c>
       <c r="E16">
-        <v>0.407235453879089</v>
+        <v>0.1481401325771472</v>
       </c>
       <c r="F16">
-        <v>9.825966168483376</v>
+        <v>4.397878190222315</v>
       </c>
       <c r="G16">
-        <v>0.0007570558845251869</v>
+        <v>0.002491079067945555</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.015835377263159</v>
+        <v>0.8952940684449686</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.241717345581037</v>
+        <v>0.4143088975326208</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3917512553505844</v>
+        <v>0.1750306202038843</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5011504477906783</v>
+        <v>0.232375415740421</v>
       </c>
       <c r="E17">
-        <v>0.3882868232805166</v>
+        <v>0.1436075933603504</v>
       </c>
       <c r="F17">
-        <v>9.407513595720786</v>
+        <v>4.294320716541762</v>
       </c>
       <c r="G17">
-        <v>0.0007619917627057493</v>
+        <v>0.002493477656161113</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.861715866734301</v>
+        <v>0.8673786789345286</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.180395473115361</v>
+        <v>0.4015755370759493</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3816175616576913</v>
+        <v>0.1723843213926273</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.489614702516235</v>
+        <v>0.2293678308000864</v>
       </c>
       <c r="E18">
-        <v>0.3775220313767491</v>
+        <v>0.1410062514205066</v>
       </c>
       <c r="F18">
-        <v>9.169657514183314</v>
+        <v>4.234846149805009</v>
       </c>
       <c r="G18">
-        <v>0.0007648291226043977</v>
+        <v>0.002494875152766903</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.774455189470018</v>
+        <v>0.8514199561226121</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.14562057679283</v>
+        <v>0.3942827529565776</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3781979262603841</v>
+        <v>0.1714896790711435</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4857313827217808</v>
+        <v>0.2283494019405765</v>
       </c>
       <c r="E19">
-        <v>0.3738990220876559</v>
+        <v>0.1401264413903291</v>
       </c>
       <c r="F19">
-        <v>9.089582720331407</v>
+        <v>4.214724115491407</v>
       </c>
       <c r="G19">
-        <v>0.0007657897331181094</v>
+        <v>0.002495351399247807</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.745134713400319</v>
+        <v>0.846033239094595</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.13392686729712</v>
+        <v>0.3918188456845826</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3936323482080866</v>
+        <v>0.1755210314088771</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5032964525390469</v>
+        <v>0.2329320027376411</v>
       </c>
       <c r="E20">
-        <v>0.3902897723904246</v>
+        <v>0.1440895019021156</v>
       </c>
       <c r="F20">
-        <v>9.451759664000718</v>
+        <v>4.305335321576081</v>
       </c>
       <c r="G20">
-        <v>0.0007614665488346043</v>
+        <v>0.002493220472116939</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.877975599856313</v>
+        <v>0.8703402061092618</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.186870841586149</v>
+        <v>0.4029277962492799</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4463700518173965</v>
+        <v>0.189159643938595</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5640800616064325</v>
+        <v>0.2483234728487105</v>
       </c>
       <c r="E21">
-        <v>0.4470604270440717</v>
+        <v>0.1574732652123458</v>
       </c>
       <c r="F21">
-        <v>10.70450162576685</v>
+        <v>4.610857673461567</v>
       </c>
       <c r="G21">
-        <v>0.0007469051077314397</v>
+        <v>0.002486274213472738</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.341920585302233</v>
+        <v>0.9531809481510152</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.371055168026885</v>
+        <v>0.4406269118802442</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.481600522395226</v>
+        <v>0.1981431743126336</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6053904008034863</v>
+        <v>0.2583814412078311</v>
       </c>
       <c r="E22">
-        <v>0.4856752847606529</v>
+        <v>0.1662733025450223</v>
       </c>
       <c r="F22">
-        <v>11.55515669630205</v>
+        <v>4.811382040668263</v>
       </c>
       <c r="G22">
-        <v>0.0007373203142323167</v>
+        <v>0.002481892537235903</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.660919167978363</v>
+        <v>1.008214806957966</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.497053657842471</v>
+        <v>0.4655512816510452</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4627200389758315</v>
+        <v>0.1933420991336163</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5831783930600238</v>
+        <v>0.2530132468488375</v>
       </c>
       <c r="E23">
-        <v>0.4649101506727149</v>
+        <v>0.1615715817565544</v>
       </c>
       <c r="F23">
-        <v>11.09786020503071</v>
+        <v>4.704278107440018</v>
       </c>
       <c r="G23">
-        <v>0.0007424450319386308</v>
+        <v>0.002484216712623751</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.489030914152607</v>
+        <v>0.9787593127746277</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.429225540553588</v>
+        <v>0.4522220922796123</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3927817040188444</v>
+        <v>0.1752992957816986</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5023258314017198</v>
+        <v>0.2326803757721052</v>
       </c>
       <c r="E24">
-        <v>0.389383840482715</v>
+        <v>0.1438716171398369</v>
       </c>
       <c r="F24">
-        <v>9.43174762054548</v>
+        <v>4.300355426123872</v>
       </c>
       <c r="G24">
-        <v>0.0007617039984564021</v>
+        <v>0.002493336687368956</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.870620421556538</v>
+        <v>0.8690010189721136</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.183941845236788</v>
+        <v>0.4023163534003942</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3199605014493017</v>
+        <v>0.1561374202045442</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4202919260102647</v>
+        <v>0.2107245250022345</v>
       </c>
       <c r="E25">
-        <v>0.312920155393634</v>
+        <v>0.1249939602571217</v>
       </c>
       <c r="F25">
-        <v>7.740145150638057</v>
+        <v>3.868026814523347</v>
       </c>
       <c r="G25">
-        <v>0.000782435548557503</v>
+        <v>0.002503858844182484</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.25527278556504</v>
+        <v>0.7543210310070947</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.937882473846642</v>
+        <v>0.3496690614117952</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1422834409152216</v>
+        <v>0.2679770632944951</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1945146085939768</v>
+        <v>0.362889105639681</v>
       </c>
       <c r="E2">
-        <v>0.1112616825839581</v>
+        <v>0.2595925300965902</v>
       </c>
       <c r="F2">
-        <v>3.552228279157816</v>
+        <v>6.557208099901601</v>
       </c>
       <c r="G2">
-        <v>0.002512203253484145</v>
+        <v>0.0007978882666299271</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6729235202556652</v>
+        <v>1.832518163167862</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3118672535452305</v>
+        <v>0.7676519359523866</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1330520610950003</v>
+        <v>0.2335126732752002</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1834900375207127</v>
+        <v>0.3252809339453648</v>
       </c>
       <c r="E3">
-        <v>0.1020511602801264</v>
+        <v>0.2247799542879321</v>
       </c>
       <c r="F3">
-        <v>3.339602839758271</v>
+        <v>5.783387251656251</v>
       </c>
       <c r="G3">
-        <v>0.002518234767026999</v>
+        <v>0.000808567125389298</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6195835765612685</v>
+        <v>1.559425739421613</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2868217909492969</v>
+        <v>0.6571600148803398</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.127461414131659</v>
+        <v>0.2126567944535935</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1766980199772092</v>
+        <v>0.3026689243447294</v>
       </c>
       <c r="E4">
-        <v>0.09644059510097946</v>
+        <v>0.2039151821659999</v>
       </c>
       <c r="F4">
-        <v>3.209681841570074</v>
+        <v>5.31892432087713</v>
       </c>
       <c r="G4">
-        <v>0.002522125131106571</v>
+        <v>0.0008152503844210649</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5877094959811302</v>
+        <v>1.39686599693357</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2717181039332317</v>
+        <v>0.5911894857726168</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1252026710787959</v>
+        <v>0.204225098572536</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1739239692793859</v>
+        <v>0.2935540960361749</v>
       </c>
       <c r="E5">
-        <v>0.09416515595338382</v>
+        <v>0.1955219712140703</v>
       </c>
       <c r="F5">
-        <v>3.156889713247068</v>
+        <v>5.131930487436961</v>
       </c>
       <c r="G5">
-        <v>0.002523757690054559</v>
+        <v>0.0008180088753779235</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5749380251172056</v>
+        <v>1.331714533412224</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2656311202340262</v>
+        <v>0.5647072300455278</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.124828786180359</v>
+        <v>0.2028288200924777</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1734629485269465</v>
+        <v>0.2920460418268647</v>
       </c>
       <c r="E6">
-        <v>0.09378797029230412</v>
+        <v>0.1941343726874933</v>
       </c>
       <c r="F6">
-        <v>3.148132577307138</v>
+        <v>5.101006920968643</v>
       </c>
       <c r="G6">
-        <v>0.002524031631692878</v>
+        <v>0.0008184691232322796</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5728303798741763</v>
+        <v>1.320956918912287</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2646244501584079</v>
+        <v>0.5603322206536347</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.127430872994907</v>
+        <v>0.2125428213922618</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1766606341098509</v>
+        <v>0.3025456206764261</v>
       </c>
       <c r="E7">
-        <v>0.09640986399422502</v>
+        <v>0.2038015692403405</v>
       </c>
       <c r="F7">
-        <v>3.208969263507385</v>
+        <v>5.316393733521863</v>
       </c>
       <c r="G7">
-        <v>0.002522146956954078</v>
+        <v>0.0008152874406605387</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5875363788548498</v>
+        <v>1.395983157423416</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2716357392808035</v>
+        <v>0.5908307983367607</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1390843891877438</v>
+        <v>0.2560243234119213</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1907177859272053</v>
+        <v>0.349809012650951</v>
       </c>
       <c r="E8">
-        <v>0.1080764038067414</v>
+        <v>0.2474711668135328</v>
       </c>
       <c r="F8">
-        <v>3.478779487155407</v>
+        <v>6.287924013266746</v>
       </c>
       <c r="G8">
-        <v>0.002514244220676529</v>
+        <v>0.000801546154862621</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.654348065628426</v>
+        <v>1.737168846332963</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3031739716825612</v>
+        <v>0.7291214611916388</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1625523457950493</v>
+        <v>0.3441991921706204</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2181256561564453</v>
+        <v>0.4473731845761364</v>
       </c>
       <c r="E9">
-        <v>0.1313258163943587</v>
+        <v>0.3381365678121711</v>
       </c>
       <c r="F9">
-        <v>4.01324113747205</v>
+        <v>8.298570756758238</v>
       </c>
       <c r="G9">
-        <v>0.002500222236873449</v>
+        <v>0.0007754361730862719</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7924689014371609</v>
+        <v>2.457012462438428</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3672502588964122</v>
+        <v>1.018774645660095</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1801727575816301</v>
+        <v>0.411525605074246</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2381999421613159</v>
+        <v>0.5237839045334738</v>
       </c>
       <c r="E10">
-        <v>0.1486581019323623</v>
+        <v>0.4094167618233016</v>
       </c>
       <c r="F10">
-        <v>4.409707060345312</v>
+        <v>9.874118402776304</v>
       </c>
       <c r="G10">
-        <v>0.002490807792589794</v>
+        <v>0.0007564922807421707</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8984926994328362</v>
+        <v>3.033619731561089</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4157661074989107</v>
+        <v>1.248785501739277</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.188271806009439</v>
+        <v>0.4429106021856484</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2473262583074813</v>
+        <v>0.5600549766742233</v>
       </c>
       <c r="E11">
-        <v>0.1566029697515248</v>
+        <v>0.4432991165762132</v>
       </c>
       <c r="F11">
-        <v>4.59101171408588</v>
+        <v>10.62158106499959</v>
       </c>
       <c r="G11">
-        <v>0.002486715087166504</v>
+        <v>0.0007478517164852355</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9477613465671482</v>
+        <v>3.310997154867636</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4381675421705893</v>
+        <v>1.358813308994428</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1913507336319356</v>
+        <v>0.4549243668935929</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2507819380697356</v>
+        <v>0.5740567444004228</v>
       </c>
       <c r="E12">
-        <v>0.159620575943336</v>
+        <v>0.4563842736110146</v>
       </c>
       <c r="F12">
-        <v>4.659812645498675</v>
+        <v>10.91000432069194</v>
       </c>
       <c r="G12">
-        <v>0.002485192407743596</v>
+        <v>0.0007445688450145391</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9665711620894797</v>
+        <v>3.418689823630899</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4466994094565706</v>
+        <v>1.401425088537366</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.190687098092738</v>
+        <v>0.4523309001089899</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2500376983520027</v>
+        <v>0.5710284635481173</v>
       </c>
       <c r="E13">
-        <v>0.1589702714787933</v>
+        <v>0.4535540120124963</v>
       </c>
       <c r="F13">
-        <v>4.644988563044762</v>
+        <v>10.84763095996067</v>
       </c>
       <c r="G13">
-        <v>0.002485519139669545</v>
+        <v>0.0007452764902710639</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9625132756019639</v>
+        <v>3.39536931647342</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4448597222477133</v>
+        <v>1.392202687966247</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1885248708795899</v>
+        <v>0.4438962717071462</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2476105611937953</v>
+        <v>0.5612012490290965</v>
       </c>
       <c r="E14">
-        <v>0.1568510462948609</v>
+        <v>0.4443702470108732</v>
       </c>
       <c r="F14">
-        <v>4.596669059108137</v>
+        <v>10.64519596733606</v>
       </c>
       <c r="G14">
-        <v>0.002486589272397973</v>
+        <v>0.0007475818993301415</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9493057571929171</v>
+        <v>3.319800718704926</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4388684759351946</v>
+        <v>1.362298933310868</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1872020061416748</v>
+        <v>0.4387472580515066</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2461238522488429</v>
+        <v>0.5552181533846579</v>
       </c>
       <c r="E15">
-        <v>0.1555541506560658</v>
+        <v>0.4387795762384243</v>
       </c>
       <c r="F15">
-        <v>4.567091068171635</v>
+        <v>10.52193015686731</v>
       </c>
       <c r="G15">
-        <v>0.002487248288574109</v>
+        <v>0.0007489923623332263</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9412357843961274</v>
+        <v>3.273874804471177</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4352050753321777</v>
+        <v>1.344110948460042</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1796451442374973</v>
+        <v>0.4094914083581358</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2376034500542801</v>
+        <v>0.5214479315793881</v>
       </c>
       <c r="E16">
-        <v>0.1481401325771472</v>
+        <v>0.4072354538791174</v>
       </c>
       <c r="F16">
-        <v>4.397878190222315</v>
+        <v>9.825966168483518</v>
       </c>
       <c r="G16">
-        <v>0.002491079067945555</v>
+        <v>0.0007570558847393869</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8952940684449686</v>
+        <v>3.015835377263329</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4143088975326208</v>
+        <v>1.241717345581037</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1750306202038843</v>
+        <v>0.3917512553505844</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.232375415740421</v>
+        <v>0.5011504477907636</v>
       </c>
       <c r="E17">
-        <v>0.1436075933603504</v>
+        <v>0.3882868232805663</v>
       </c>
       <c r="F17">
-        <v>4.294320716541762</v>
+        <v>9.407513595720644</v>
       </c>
       <c r="G17">
-        <v>0.002493477656161113</v>
+        <v>0.0007619917627197516</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8673786789345286</v>
+        <v>2.861715866734301</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4015755370759493</v>
+        <v>1.180395473115354</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1723843213926273</v>
+        <v>0.3816175616574355</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2293678308000864</v>
+        <v>0.4896147025162065</v>
       </c>
       <c r="E18">
-        <v>0.1410062514205066</v>
+        <v>0.3775220313767989</v>
       </c>
       <c r="F18">
-        <v>4.234846149805009</v>
+        <v>9.169657514183342</v>
       </c>
       <c r="G18">
-        <v>0.002494875152766903</v>
+        <v>0.0007648291224886742</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8514199561226121</v>
+        <v>2.77445518946999</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3942827529565776</v>
+        <v>1.145620576792808</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1714896790711435</v>
+        <v>0.3781979262606399</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2283494019405765</v>
+        <v>0.485731382721724</v>
       </c>
       <c r="E19">
-        <v>0.1401264413903291</v>
+        <v>0.3738990220877625</v>
       </c>
       <c r="F19">
-        <v>4.214724115491407</v>
+        <v>9.089582720331464</v>
       </c>
       <c r="G19">
-        <v>0.002495351399247807</v>
+        <v>0.0007657897330002479</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.846033239094595</v>
+        <v>2.74513471340029</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3918188456845826</v>
+        <v>1.133926867297099</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1755210314088771</v>
+        <v>0.3936323482078024</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2329320027376411</v>
+        <v>0.5032964525387627</v>
       </c>
       <c r="E20">
-        <v>0.1440895019021156</v>
+        <v>0.3902897723904815</v>
       </c>
       <c r="F20">
-        <v>4.305335321576081</v>
+        <v>9.451759664000747</v>
       </c>
       <c r="G20">
-        <v>0.002493220472116939</v>
+        <v>0.0007614665490606396</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8703402061092618</v>
+        <v>2.877975599856342</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4029277962492799</v>
+        <v>1.186870841586149</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.189159643938595</v>
+        <v>0.4463700518175813</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2483234728487105</v>
+        <v>0.5640800616059778</v>
       </c>
       <c r="E21">
-        <v>0.1574732652123458</v>
+        <v>0.4470604270441214</v>
       </c>
       <c r="F21">
-        <v>4.610857673461567</v>
+        <v>10.70450162576685</v>
       </c>
       <c r="G21">
-        <v>0.002486274213472738</v>
+        <v>0.0007469051078541766</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9531809481510152</v>
+        <v>3.34192058530229</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4406269118802442</v>
+        <v>1.371055168026885</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1981431743126336</v>
+        <v>0.4816005223954107</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2583814412078311</v>
+        <v>0.6053904008037136</v>
       </c>
       <c r="E22">
-        <v>0.1662733025450223</v>
+        <v>0.4856752847607027</v>
       </c>
       <c r="F22">
-        <v>4.811382040668263</v>
+        <v>11.55515669630222</v>
       </c>
       <c r="G22">
-        <v>0.002481892537235903</v>
+        <v>0.000737320314227137</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.008214806957966</v>
+        <v>3.660919167978335</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4655512816510452</v>
+        <v>1.497053657842528</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1933420991336163</v>
+        <v>0.4627200389756041</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2530132468488375</v>
+        <v>0.5831783930599954</v>
       </c>
       <c r="E23">
-        <v>0.1615715817565544</v>
+        <v>0.4649101506727149</v>
       </c>
       <c r="F23">
-        <v>4.704278107440018</v>
+        <v>11.09786020503071</v>
       </c>
       <c r="G23">
-        <v>0.002484216712623751</v>
+        <v>0.0007424450319385268</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9787593127746277</v>
+        <v>3.489030914152892</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4522220922796123</v>
+        <v>1.42922554055356</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1752992957816986</v>
+        <v>0.3927817040191286</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2326803757721052</v>
+        <v>0.5023258314014925</v>
       </c>
       <c r="E24">
-        <v>0.1438716171398369</v>
+        <v>0.3893838404826511</v>
       </c>
       <c r="F24">
-        <v>4.300355426123872</v>
+        <v>9.431747620545451</v>
       </c>
       <c r="G24">
-        <v>0.002493336687368956</v>
+        <v>0.0007617039987905731</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8690010189721136</v>
+        <v>2.87062042155668</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4023163534003942</v>
+        <v>1.183941845236781</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1561374202045442</v>
+        <v>0.3199605014492022</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2107245250022345</v>
+        <v>0.4202919260107052</v>
       </c>
       <c r="E25">
-        <v>0.1249939602571217</v>
+        <v>0.3129201553935275</v>
       </c>
       <c r="F25">
-        <v>3.868026814523347</v>
+        <v>7.740145150638028</v>
       </c>
       <c r="G25">
-        <v>0.002503858844182484</v>
+        <v>0.000782435548561371</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7543210310070947</v>
+        <v>2.25527278556504</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3496690614117952</v>
+        <v>0.9378824738465852</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2679770632944951</v>
+        <v>0.6625491555601855</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.362889105639681</v>
+        <v>0.07066648766081585</v>
       </c>
       <c r="E2">
-        <v>0.2595925300965902</v>
+        <v>0.1652859234994031</v>
       </c>
       <c r="F2">
-        <v>6.557208099901601</v>
+        <v>0.3608919639063402</v>
       </c>
       <c r="G2">
-        <v>0.0007978882666299271</v>
+        <v>0.2548368862346635</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.006218283510724509</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01515175273403369</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2295304350995337</v>
       </c>
       <c r="K2">
-        <v>1.832518163167862</v>
+        <v>0.4088029238363671</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7676519359523866</v>
+        <v>1.22125665603275</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1887343082942863</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1820985946692062</v>
+      </c>
+      <c r="P2">
+        <v>0.9215521473343387</v>
+      </c>
+      <c r="Q2">
+        <v>0.9703568423564235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2335126732752002</v>
+        <v>0.5844439265015922</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3252809339453648</v>
+        <v>0.06228978601103563</v>
       </c>
       <c r="E3">
-        <v>0.2247799542879321</v>
+        <v>0.1620293955313947</v>
       </c>
       <c r="F3">
-        <v>5.783387251656251</v>
+        <v>0.3371796821214232</v>
       </c>
       <c r="G3">
-        <v>0.000808567125389298</v>
+        <v>0.2397861749221164</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.007758765220599928</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01713990100270646</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2263316280641732</v>
       </c>
       <c r="K3">
-        <v>1.559425739421613</v>
+        <v>0.4146488895774354</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6571600148803398</v>
+        <v>1.085025430571051</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1652174246999252</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1600781908431514</v>
+      </c>
+      <c r="P3">
+        <v>0.9439013298019354</v>
+      </c>
+      <c r="Q3">
+        <v>0.931492437773727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2126567944535935</v>
+        <v>0.5359476470048889</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3026689243447294</v>
+        <v>0.057146672441867</v>
       </c>
       <c r="E4">
-        <v>0.2039151821659999</v>
+        <v>0.1599677100686301</v>
       </c>
       <c r="F4">
-        <v>5.31892432087713</v>
+        <v>0.3230154921011632</v>
       </c>
       <c r="G4">
-        <v>0.0008152503844210649</v>
+        <v>0.230858035742834</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.008830859059015747</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01850680496847312</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2245969762945919</v>
       </c>
       <c r="K4">
-        <v>1.39686599693357</v>
+        <v>0.4183680365954228</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5911894857726168</v>
+        <v>1.001409747953545</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.150867673306216</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1464978224519804</v>
+      </c>
+      <c r="P4">
+        <v>0.9582159479827475</v>
+      </c>
+      <c r="Q4">
+        <v>0.9087663376485295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.204225098572536</v>
+        <v>0.5148996174112739</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2935540960361749</v>
+        <v>0.05508267833085512</v>
       </c>
       <c r="E5">
-        <v>0.1955219712140703</v>
+        <v>0.15904629204059</v>
       </c>
       <c r="F5">
-        <v>5.131930487436961</v>
+        <v>0.3171378697312193</v>
       </c>
       <c r="G5">
-        <v>0.0008180088753779235</v>
+        <v>0.2271001696613695</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.009302550757730059</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01919280058094763</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2238434956060829</v>
       </c>
       <c r="K5">
-        <v>1.331714533412224</v>
+        <v>0.4195868344088485</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5647072300455278</v>
+        <v>0.9680844186671038</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.145277884217677</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1408392580653448</v>
+      </c>
+      <c r="P5">
+        <v>0.9642602164528107</v>
+      </c>
+      <c r="Q5">
+        <v>0.8991523077711889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2028288200924777</v>
+        <v>0.5099874061764353</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2920460418268647</v>
+        <v>0.05477950176048552</v>
       </c>
       <c r="E6">
-        <v>0.1941343726874933</v>
+        <v>0.1588135163927769</v>
       </c>
       <c r="F6">
-        <v>5.101006920968643</v>
+        <v>0.3159227639813622</v>
       </c>
       <c r="G6">
-        <v>0.0008184691232322796</v>
+        <v>0.2262431660601507</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.009387628663430098</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01942974547072751</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2235963415719198</v>
       </c>
       <c r="K6">
-        <v>1.320956918912287</v>
+        <v>0.4193900851382537</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5603322206536347</v>
+        <v>0.9634682140967925</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1446413963181072</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1397649170360005</v>
+      </c>
+      <c r="P6">
+        <v>0.9653549077652741</v>
+      </c>
+      <c r="Q6">
+        <v>0.8968062127320025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2125428213922618</v>
+        <v>0.5318035830650558</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3025456206764261</v>
+        <v>0.05722731436526374</v>
       </c>
       <c r="E7">
-        <v>0.2038015692403405</v>
+        <v>0.1597419155766864</v>
       </c>
       <c r="F7">
-        <v>5.316393733521863</v>
+        <v>0.3222679109338813</v>
       </c>
       <c r="G7">
-        <v>0.0008152874406605387</v>
+        <v>0.2301591290744085</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.008849821517580195</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01882945872816943</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2242450221100327</v>
       </c>
       <c r="K7">
-        <v>1.395983157423416</v>
+        <v>0.4172926291581049</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5908307983367607</v>
+        <v>1.003475015587412</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1515868282187753</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1460551803292418</v>
+      </c>
+      <c r="P7">
+        <v>0.9585381355972373</v>
+      </c>
+      <c r="Q7">
+        <v>0.9065466388802719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2560243234119213</v>
+        <v>0.6305847653229364</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.349809012650951</v>
+        <v>0.06792291990684873</v>
       </c>
       <c r="E8">
-        <v>0.2474711668135328</v>
+        <v>0.1639032510839238</v>
       </c>
       <c r="F8">
-        <v>6.287924013266746</v>
+        <v>0.3517489805243983</v>
       </c>
       <c r="G8">
-        <v>0.000801546154862621</v>
+        <v>0.2487249949487875</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.006736351561993675</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01618630685284916</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2279304867512693</v>
       </c>
       <c r="K8">
-        <v>1.737168846332963</v>
+        <v>0.409369352447678</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7291214611916388</v>
+        <v>1.177637967955064</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.181664521275323</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.174030042190978</v>
+      </c>
+      <c r="P8">
+        <v>0.9295278369844624</v>
+      </c>
+      <c r="Q8">
+        <v>0.9539616697703082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3441991921706204</v>
+        <v>0.8268674923217816</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4473731845761364</v>
+        <v>0.08872621627212141</v>
       </c>
       <c r="E9">
-        <v>0.3381365678121711</v>
+        <v>0.1719656856456568</v>
       </c>
       <c r="F9">
-        <v>8.298570756758238</v>
+        <v>0.4141263100399257</v>
       </c>
       <c r="G9">
-        <v>0.0007754361730862719</v>
+        <v>0.2889715211313941</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003621707379669103</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01171445713718633</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.237667729943432</v>
       </c>
       <c r="K9">
-        <v>2.457012462438428</v>
+        <v>0.3967880807080348</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.018774645660095</v>
+        <v>1.515236009267255</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.240005288319395</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.229083049102293</v>
+      </c>
+      <c r="P9">
+        <v>0.8769249216819404</v>
+      </c>
+      <c r="Q9">
+        <v>1.060279473428082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.411525605074246</v>
+        <v>0.953695984662744</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5237839045334738</v>
+        <v>0.1047602808887973</v>
       </c>
       <c r="E10">
-        <v>0.4094167618233016</v>
+        <v>0.1762493562554672</v>
       </c>
       <c r="F10">
-        <v>9.874118402776304</v>
+        <v>0.4583401510772518</v>
       </c>
       <c r="G10">
-        <v>0.0007564922807421707</v>
+        <v>0.3165880663626126</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002331760445861253</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.009441397255157469</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2441235397359378</v>
       </c>
       <c r="K10">
-        <v>3.033619731561089</v>
+        <v>0.3837712529615871</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.248785501739277</v>
+        <v>1.774193892508521</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2723933643261773</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2626684275794311</v>
+      </c>
+      <c r="P10">
+        <v>0.8438594445503149</v>
+      </c>
+      <c r="Q10">
+        <v>1.132754968394238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4429106021856484</v>
+        <v>0.8967447107444855</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5600549766742233</v>
+        <v>0.118066749626152</v>
       </c>
       <c r="E11">
-        <v>0.4432991165762132</v>
+        <v>0.1768793976698664</v>
       </c>
       <c r="F11">
-        <v>10.62158106499959</v>
+        <v>0.445973219937656</v>
       </c>
       <c r="G11">
-        <v>0.0007478517164852355</v>
+        <v>0.2979975716231991</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02110990688615644</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.009667499124264012</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2311452433513779</v>
       </c>
       <c r="K11">
-        <v>3.310997154867636</v>
+        <v>0.3462583250052784</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.358813308994428</v>
+        <v>1.975088260084107</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1968448688113824</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2238946688194616</v>
+      </c>
+      <c r="P11">
+        <v>0.8563329298121118</v>
+      </c>
+      <c r="Q11">
+        <v>1.066344631790059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4549243668935929</v>
+        <v>0.8297202604940992</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5740567444004228</v>
+        <v>0.1260271785518512</v>
       </c>
       <c r="E12">
-        <v>0.4563842736110146</v>
+        <v>0.1900468167340392</v>
       </c>
       <c r="F12">
-        <v>10.91000432069194</v>
+        <v>0.426924108616916</v>
       </c>
       <c r="G12">
-        <v>0.0007445688450145391</v>
+        <v>0.2775918668059347</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06003213688196496</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.009740226726416168</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2192876934155024</v>
       </c>
       <c r="K12">
-        <v>3.418689823630899</v>
+        <v>0.3232560852544548</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.401425088537366</v>
+        <v>2.089767047403114</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1359966254130569</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.1875049690496873</v>
+      </c>
+      <c r="P12">
+        <v>0.8809862477187664</v>
+      </c>
+      <c r="Q12">
+        <v>0.9983240233507615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4523309001089899</v>
+        <v>0.7454157461725117</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5710284635481173</v>
+        <v>0.1304251182189944</v>
       </c>
       <c r="E13">
-        <v>0.4535540120124963</v>
+        <v>0.2127666595853661</v>
       </c>
       <c r="F13">
-        <v>10.84763095996067</v>
+        <v>0.4004227951100674</v>
       </c>
       <c r="G13">
-        <v>0.0007452764902710639</v>
+        <v>0.2534764292684173</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1161089330735763</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01015295670980088</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.206992517353747</v>
       </c>
       <c r="K13">
-        <v>3.39536931647342</v>
+        <v>0.3081828199743377</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.392202687966247</v>
+        <v>2.147594527795349</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08440360883355424</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.150467772751643</v>
+      </c>
+      <c r="P13">
+        <v>0.9158136733518063</v>
+      </c>
+      <c r="Q13">
+        <v>0.9214427383080164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4438962717071462</v>
+        <v>0.6783223252412256</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5612012490290965</v>
+        <v>0.1319243343458112</v>
       </c>
       <c r="E14">
-        <v>0.4443702470108732</v>
+        <v>0.2345569815549915</v>
       </c>
       <c r="F14">
-        <v>10.64519596733606</v>
+        <v>0.3784402499485395</v>
       </c>
       <c r="G14">
-        <v>0.0007475818993301415</v>
+        <v>0.2349075952110411</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1657091140419027</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01069742604414703</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1981594903236328</v>
       </c>
       <c r="K14">
-        <v>3.319800718704926</v>
+        <v>0.3016227792901591</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.362298933310868</v>
+        <v>2.163135562633528</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05436378441662981</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1247870595754783</v>
+      </c>
+      <c r="P14">
+        <v>0.9456007404904128</v>
+      </c>
+      <c r="Q14">
+        <v>0.863536700306355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4387472580515066</v>
+        <v>0.6569627002013192</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5552181533846579</v>
+        <v>0.1315301791043311</v>
       </c>
       <c r="E15">
-        <v>0.4387795762384243</v>
+        <v>0.240309758729822</v>
       </c>
       <c r="F15">
-        <v>10.52193015686731</v>
+        <v>0.3713242769756278</v>
       </c>
       <c r="G15">
-        <v>0.0007489923623332263</v>
+        <v>0.2293849676794011</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1783307139029517</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.011052556856189</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1958158148315903</v>
       </c>
       <c r="K15">
-        <v>3.273874804471177</v>
+        <v>0.3010174205841483</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.344110948460042</v>
+        <v>2.15528550140283</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04778039379758781</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1179927129244334</v>
+      </c>
+      <c r="P15">
+        <v>0.9543435423476936</v>
+      </c>
+      <c r="Q15">
+        <v>0.8468926600755253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4094914083581358</v>
+        <v>0.6197911548549087</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5214479315793881</v>
+        <v>0.1236069434810219</v>
       </c>
       <c r="E16">
-        <v>0.4072354538791174</v>
+        <v>0.2328514873216712</v>
       </c>
       <c r="F16">
-        <v>9.825966168483518</v>
+        <v>0.3571082584552911</v>
       </c>
       <c r="G16">
-        <v>0.0007570558847393869</v>
+        <v>0.2219179962327615</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1661822789365885</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01214826137074621</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1951762316270802</v>
       </c>
       <c r="K16">
-        <v>3.015835377263329</v>
+        <v>0.3086841777877618</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.241717345581037</v>
+        <v>2.030949067652415</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04605742278069158</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1119336802985096</v>
+      </c>
+      <c r="P16">
+        <v>0.9583916826813521</v>
+      </c>
+      <c r="Q16">
+        <v>0.8295508303632744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3917512553505844</v>
+        <v>0.626168083588226</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5011504477907636</v>
+        <v>0.116759205559319</v>
       </c>
       <c r="E17">
-        <v>0.3882868232805663</v>
+        <v>0.2145522221055742</v>
       </c>
       <c r="F17">
-        <v>9.407513595720644</v>
+        <v>0.357959437041572</v>
       </c>
       <c r="G17">
-        <v>0.0007619917627197516</v>
+        <v>0.2260727666579356</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1287209447671387</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01272556635540489</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1994174246204778</v>
       </c>
       <c r="K17">
-        <v>2.861715866734301</v>
+        <v>0.3177318872839221</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.180395473115354</v>
+        <v>1.927758036559908</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05953803557277837</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1204640778333719</v>
+      </c>
+      <c r="P17">
+        <v>0.9457326185096946</v>
+      </c>
+      <c r="Q17">
+        <v>0.8471305150981294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3816175616574355</v>
+        <v>0.6748013480316502</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4896147025162065</v>
+        <v>0.1100513846190836</v>
       </c>
       <c r="E18">
-        <v>0.3775220313767989</v>
+        <v>0.1907785193520706</v>
       </c>
       <c r="F18">
-        <v>9.169657514183342</v>
+        <v>0.3722696936916705</v>
       </c>
       <c r="G18">
-        <v>0.0007648291224886742</v>
+        <v>0.2412795964275034</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07589187358586003</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01252602746708664</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2085879385435589</v>
       </c>
       <c r="K18">
-        <v>2.77445518946999</v>
+        <v>0.3315501349160783</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.145620576792808</v>
+        <v>1.829915559927969</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0928702400525907</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1443274894240716</v>
+      </c>
+      <c r="P18">
+        <v>0.9198356452197345</v>
+      </c>
+      <c r="Q18">
+        <v>0.8985075198105648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3781979262606399</v>
+        <v>0.7496749109943153</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.485731382721724</v>
+        <v>0.1043076161776213</v>
       </c>
       <c r="E19">
-        <v>0.3738990220877625</v>
+        <v>0.1741629922151624</v>
       </c>
       <c r="F19">
-        <v>9.089582720331464</v>
+        <v>0.3953382872830389</v>
       </c>
       <c r="G19">
-        <v>0.0007657897330002479</v>
+        <v>0.2636017914054634</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03022844859006568</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0122968963794019</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2206133571613975</v>
       </c>
       <c r="K19">
-        <v>2.74513471340029</v>
+        <v>0.3504895150697429</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.133926867297099</v>
+        <v>1.750614634149002</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1492602246259693</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.1808181232623163</v>
+      </c>
+      <c r="P19">
+        <v>0.8921412533777726</v>
+      </c>
+      <c r="Q19">
+        <v>0.9709907035708341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3936323482078024</v>
+        <v>0.9078820125955076</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5032964525387627</v>
+        <v>0.1009212805664674</v>
       </c>
       <c r="E20">
-        <v>0.3902897723904815</v>
+        <v>0.1745401860220723</v>
       </c>
       <c r="F20">
-        <v>9.451759664000747</v>
+        <v>0.4443379340477094</v>
       </c>
       <c r="G20">
-        <v>0.0007614665490606396</v>
+        <v>0.3070531953068922</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002629491910551174</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01092407585343214</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.241224626030089</v>
       </c>
       <c r="K20">
-        <v>2.877975599856342</v>
+        <v>0.3838155321112708</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.186870841586149</v>
+        <v>1.714597717340922</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2658704335898818</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2524505896618301</v>
+      </c>
+      <c r="P20">
+        <v>0.8537593891249529</v>
+      </c>
+      <c r="Q20">
+        <v>1.106365713279217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4463700518175813</v>
+        <v>1.02624882085081</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5640800616059778</v>
+        <v>0.1121840462149208</v>
       </c>
       <c r="E21">
-        <v>0.4470604270441214</v>
+        <v>0.1799049494800555</v>
       </c>
       <c r="F21">
-        <v>10.70450162576685</v>
+        <v>0.4852844752446401</v>
       </c>
       <c r="G21">
-        <v>0.0007469051078541766</v>
+        <v>0.3348877896421811</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001438578574664451</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.009102211543374317</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2496671020660841</v>
       </c>
       <c r="K21">
-        <v>3.34192058530229</v>
+        <v>0.3807955860364629</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.371055168026885</v>
+        <v>1.898650103530116</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3081915937940636</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.2882761121871198</v>
+      </c>
+      <c r="P21">
+        <v>0.8258815996831146</v>
+      </c>
+      <c r="Q21">
+        <v>1.18335852502247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4816005223954107</v>
+        <v>1.101779396745798</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6053904008037136</v>
+        <v>0.11974678460777</v>
       </c>
       <c r="E22">
-        <v>0.4856752847607027</v>
+        <v>0.1829664993546851</v>
       </c>
       <c r="F22">
-        <v>11.55515669630222</v>
+        <v>0.5115728971841591</v>
       </c>
       <c r="G22">
-        <v>0.000737320314227137</v>
+        <v>0.3525393553811256</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0009411509694632336</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.007743100315233065</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2549599861062291</v>
       </c>
       <c r="K22">
-        <v>3.660919167978335</v>
+        <v>0.3782813608542455</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.497053657842528</v>
+        <v>2.020331976131644</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3290747046330154</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3088800551864352</v>
+      </c>
+      <c r="P22">
+        <v>0.808819212745842</v>
+      </c>
+      <c r="Q22">
+        <v>1.232055781885919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4627200389756041</v>
+        <v>1.066164709196812</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5831783930599954</v>
+        <v>0.1155754415361088</v>
       </c>
       <c r="E23">
-        <v>0.4649101506727149</v>
+        <v>0.1815458743903497</v>
       </c>
       <c r="F23">
-        <v>11.09786020503071</v>
+        <v>0.4982682158909952</v>
       </c>
       <c r="G23">
-        <v>0.0007424450319385268</v>
+        <v>0.343827946627556</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001188353954889476</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.008101465372200245</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2524984593052579</v>
       </c>
       <c r="K23">
-        <v>3.489030914152892</v>
+        <v>0.3808062441987232</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.42922554055356</v>
+        <v>1.952264634804493</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3169518982611237</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.2983296401427964</v>
+      </c>
+      <c r="P23">
+        <v>0.817316979788508</v>
+      </c>
+      <c r="Q23">
+        <v>1.208330660718843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3927817040191286</v>
+        <v>0.9229572319493968</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5023258314014925</v>
+        <v>0.1000258188652694</v>
       </c>
       <c r="E24">
-        <v>0.3893838404826511</v>
+        <v>0.1757891202999109</v>
       </c>
       <c r="F24">
-        <v>9.431747620545451</v>
+        <v>0.4477958401728657</v>
       </c>
       <c r="G24">
-        <v>0.0007617039987905731</v>
+        <v>0.3105819015449214</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002428977312403435</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01031252833360696</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2431330232198121</v>
       </c>
       <c r="K24">
-        <v>2.87062042155668</v>
+        <v>0.3887859089788073</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.183941845236781</v>
+        <v>1.70000034259931</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2728267686279935</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2575996829261591</v>
+      </c>
+      <c r="P24">
+        <v>0.851685366030015</v>
+      </c>
+      <c r="Q24">
+        <v>1.117837930923912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3199605014492022</v>
+        <v>0.7671803908767458</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4202919260107052</v>
+        <v>0.0832926892863739</v>
       </c>
       <c r="E25">
-        <v>0.3129201553935275</v>
+        <v>0.1694789437607751</v>
       </c>
       <c r="F25">
-        <v>7.740145150638028</v>
+        <v>0.3956547367660761</v>
       </c>
       <c r="G25">
-        <v>0.000782435548561371</v>
+        <v>0.2766046440560572</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004359230048768759</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01331693979708426</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2342110446559715</v>
       </c>
       <c r="K25">
-        <v>2.25527278556504</v>
+        <v>0.3981839846096218</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9378824738465852</v>
+        <v>1.428441880896685</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2255860062999062</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2135661492612293</v>
+      </c>
+      <c r="P25">
+        <v>0.8912867989380153</v>
+      </c>
+      <c r="Q25">
+        <v>1.026665849033279</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6625491555601855</v>
+        <v>0.6056054221880913</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07066648766081585</v>
+        <v>0.07171072937747169</v>
       </c>
       <c r="E2">
-        <v>0.1652859234994031</v>
+        <v>0.1473643886895328</v>
       </c>
       <c r="F2">
-        <v>0.3608919639063402</v>
+        <v>0.3538347547156704</v>
       </c>
       <c r="G2">
-        <v>0.2548368862346635</v>
+        <v>0.2307019247053077</v>
       </c>
       <c r="H2">
-        <v>0.006218283510724509</v>
+        <v>0.004586522369129375</v>
       </c>
       <c r="I2">
-        <v>0.01515175273403369</v>
+        <v>0.01049468679290655</v>
       </c>
       <c r="J2">
-        <v>0.2295304350995337</v>
+        <v>0.266568354448367</v>
       </c>
       <c r="K2">
-        <v>0.4088029238363671</v>
+        <v>0.3616171060524511</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1554240776871953</v>
       </c>
       <c r="M2">
-        <v>1.22125665603275</v>
+        <v>0.1178389755692635</v>
       </c>
       <c r="N2">
-        <v>0.1887343082942863</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1820985946692062</v>
+        <v>1.227166090696528</v>
       </c>
       <c r="P2">
-        <v>0.9215521473343387</v>
+        <v>0.2012571739614515</v>
       </c>
       <c r="Q2">
-        <v>0.9703568423564235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.17796735962472</v>
+      </c>
+      <c r="R2">
+        <v>0.8893615737550817</v>
+      </c>
+      <c r="S2">
+        <v>0.9478476738597834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5844439265015922</v>
+        <v>0.5368807747278197</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06228978601103563</v>
+        <v>0.06299251580914955</v>
       </c>
       <c r="E3">
-        <v>0.1620293955313947</v>
+        <v>0.1445015897781818</v>
       </c>
       <c r="F3">
-        <v>0.3371796821214232</v>
+        <v>0.3315512669573408</v>
       </c>
       <c r="G3">
-        <v>0.2397861749221164</v>
+        <v>0.2168896085666177</v>
       </c>
       <c r="H3">
-        <v>0.007758765220599928</v>
+        <v>0.00582913475114144</v>
       </c>
       <c r="I3">
-        <v>0.01713990100270646</v>
+        <v>0.01190337408466391</v>
       </c>
       <c r="J3">
-        <v>0.2263316280641732</v>
+        <v>0.2625380346436259</v>
       </c>
       <c r="K3">
-        <v>0.4146488895774354</v>
+        <v>0.3682104736229235</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.16043294805473</v>
       </c>
       <c r="M3">
-        <v>1.085025430571051</v>
+        <v>0.119592617913546</v>
       </c>
       <c r="N3">
-        <v>0.1652174246999252</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1600781908431514</v>
+        <v>1.084335610571372</v>
       </c>
       <c r="P3">
-        <v>0.9439013298019354</v>
+        <v>0.1757829502906247</v>
       </c>
       <c r="Q3">
-        <v>0.931492437773727</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1568377847540532</v>
+      </c>
+      <c r="R3">
+        <v>0.9082079637268521</v>
+      </c>
+      <c r="S3">
+        <v>0.9130228423826168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5359476470048889</v>
+        <v>0.4939551288304642</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.057146672441867</v>
+        <v>0.05764589858694791</v>
       </c>
       <c r="E4">
-        <v>0.1599677100686301</v>
+        <v>0.1426958935517608</v>
       </c>
       <c r="F4">
-        <v>0.3230154921011632</v>
+        <v>0.3182161881981429</v>
       </c>
       <c r="G4">
-        <v>0.230858035742834</v>
+        <v>0.2087487192353592</v>
       </c>
       <c r="H4">
-        <v>0.008830859059015747</v>
+        <v>0.006700038611017756</v>
       </c>
       <c r="I4">
-        <v>0.01850680496847312</v>
+        <v>0.01288919134027777</v>
       </c>
       <c r="J4">
-        <v>0.2245969762945919</v>
+        <v>0.2601716486997177</v>
       </c>
       <c r="K4">
-        <v>0.4183680365954228</v>
+        <v>0.3723444091274288</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1636862034000668</v>
       </c>
       <c r="M4">
-        <v>1.001409747953545</v>
+        <v>0.1210573105348649</v>
       </c>
       <c r="N4">
-        <v>0.150867673306216</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1464978224519804</v>
+        <v>0.9968102535295031</v>
       </c>
       <c r="P4">
-        <v>0.9582159479827475</v>
+        <v>0.1602815985611556</v>
       </c>
       <c r="Q4">
-        <v>0.9087663376485295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1437830695165196</v>
+      </c>
+      <c r="R4">
+        <v>0.9204297948540656</v>
+      </c>
+      <c r="S4">
+        <v>0.8926276231820509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5148996174112739</v>
+        <v>0.4752057069450331</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05508267833085512</v>
+        <v>0.05549922668073037</v>
       </c>
       <c r="E5">
-        <v>0.15904629204059</v>
+        <v>0.141893291543014</v>
       </c>
       <c r="F5">
-        <v>0.3171378697312193</v>
+        <v>0.3126749725162625</v>
       </c>
       <c r="G5">
-        <v>0.2271001696613695</v>
+        <v>0.2053305277940964</v>
       </c>
       <c r="H5">
-        <v>0.009302550757730059</v>
+        <v>0.007084592787420546</v>
       </c>
       <c r="I5">
-        <v>0.01919280058094763</v>
+        <v>0.01342345126431876</v>
       </c>
       <c r="J5">
-        <v>0.2238434956060829</v>
+        <v>0.2591328775203579</v>
       </c>
       <c r="K5">
-        <v>0.4195868344088485</v>
+        <v>0.3737564094579682</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1648891807973634</v>
       </c>
       <c r="M5">
-        <v>0.9680844186671038</v>
+        <v>0.1216985820567418</v>
       </c>
       <c r="N5">
-        <v>0.145277884217677</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1408392580653448</v>
+        <v>0.9619039778354477</v>
       </c>
       <c r="P5">
-        <v>0.9642602164528107</v>
+        <v>0.1542281320130314</v>
       </c>
       <c r="Q5">
-        <v>0.8991523077711889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1383389709541767</v>
+      </c>
+      <c r="R5">
+        <v>0.9256537756274348</v>
+      </c>
+      <c r="S5">
+        <v>0.8839604516963107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5099874061764353</v>
+        <v>0.4707659758430367</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05477950176048552</v>
+        <v>0.05518081932607544</v>
       </c>
       <c r="E6">
-        <v>0.1588135163927769</v>
+        <v>0.1416939915622262</v>
       </c>
       <c r="F6">
-        <v>0.3159227639813622</v>
+        <v>0.3115277310283417</v>
       </c>
       <c r="G6">
-        <v>0.2262431660601507</v>
+        <v>0.2045461425581223</v>
       </c>
       <c r="H6">
-        <v>0.009387628663430098</v>
+        <v>0.007154115281127582</v>
       </c>
       <c r="I6">
-        <v>0.01942974547072751</v>
+        <v>0.01364832593142751</v>
       </c>
       <c r="J6">
-        <v>0.2235963415719198</v>
+        <v>0.2588385931624799</v>
       </c>
       <c r="K6">
-        <v>0.4193900851382537</v>
+        <v>0.3736344725165992</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1648884891645626</v>
       </c>
       <c r="M6">
-        <v>0.9634682140967925</v>
+        <v>0.1217451965351906</v>
       </c>
       <c r="N6">
-        <v>0.1446413963181072</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1397649170360005</v>
+        <v>0.9569979483829911</v>
       </c>
       <c r="P6">
-        <v>0.9653549077652741</v>
+        <v>0.1535068423072303</v>
       </c>
       <c r="Q6">
-        <v>0.8968062127320025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1373067189132762</v>
+      </c>
+      <c r="R6">
+        <v>0.9266353223053052</v>
+      </c>
+      <c r="S6">
+        <v>0.8818107805813895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5318035830650558</v>
+        <v>0.4902305126066864</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05722731436526374</v>
+        <v>0.05783674896951396</v>
       </c>
       <c r="E7">
-        <v>0.1597419155766864</v>
+        <v>0.1425120534319737</v>
       </c>
       <c r="F7">
-        <v>0.3222679109338813</v>
+        <v>0.3168572424446126</v>
       </c>
       <c r="G7">
-        <v>0.2301591290744085</v>
+        <v>0.2104833587493289</v>
       </c>
       <c r="H7">
-        <v>0.008849821517580195</v>
+        <v>0.006718776882161576</v>
       </c>
       <c r="I7">
-        <v>0.01882945872816943</v>
+        <v>0.01324804353025577</v>
       </c>
       <c r="J7">
-        <v>0.2242450221100327</v>
+        <v>0.2562955207176785</v>
       </c>
       <c r="K7">
-        <v>0.4172926291581049</v>
+        <v>0.3712481063288386</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1630902255191078</v>
       </c>
       <c r="M7">
-        <v>1.003475015587412</v>
+        <v>0.12083905723477</v>
       </c>
       <c r="N7">
-        <v>0.1515868282187753</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1460551803292418</v>
+        <v>0.9975807418719853</v>
       </c>
       <c r="P7">
-        <v>0.9585381355972373</v>
+        <v>0.1608393652083606</v>
       </c>
       <c r="Q7">
-        <v>0.9065466388802719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1433359224369397</v>
+      </c>
+      <c r="R7">
+        <v>0.9209265570898282</v>
+      </c>
+      <c r="S7">
+        <v>0.8885382907143651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6305847653229364</v>
+        <v>0.5777117735124477</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06792291990684873</v>
+        <v>0.06923210535218516</v>
       </c>
       <c r="E8">
-        <v>0.1639032510839238</v>
+        <v>0.1461779735784929</v>
       </c>
       <c r="F8">
-        <v>0.3517489805243983</v>
+        <v>0.3430751924829138</v>
       </c>
       <c r="G8">
-        <v>0.2487249949487875</v>
+        <v>0.2330789177707615</v>
       </c>
       <c r="H8">
-        <v>0.006736351561993675</v>
+        <v>0.005011512141139651</v>
       </c>
       <c r="I8">
-        <v>0.01618630685284916</v>
+        <v>0.01138904605994462</v>
       </c>
       <c r="J8">
-        <v>0.2279304867512693</v>
+        <v>0.2532271429674751</v>
       </c>
       <c r="K8">
-        <v>0.409369352447678</v>
+        <v>0.3621677498244154</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1562791878019372</v>
       </c>
       <c r="M8">
-        <v>1.177637967955064</v>
+        <v>0.1179163726783274</v>
       </c>
       <c r="N8">
-        <v>0.181664521275323</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.174030042190978</v>
+        <v>1.177131464520045</v>
       </c>
       <c r="P8">
-        <v>0.9295278369844624</v>
+        <v>0.193030189854241</v>
       </c>
       <c r="Q8">
-        <v>0.9539616697703082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1701487453453723</v>
+      </c>
+      <c r="R8">
+        <v>0.8966929598072113</v>
+      </c>
+      <c r="S8">
+        <v>0.926404814751649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8268674923217816</v>
+        <v>0.7493603938552269</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08872621627212141</v>
+        <v>0.09104303720664575</v>
       </c>
       <c r="E9">
-        <v>0.1719656856456568</v>
+        <v>0.1532938804768402</v>
       </c>
       <c r="F9">
-        <v>0.4141263100399257</v>
+        <v>0.4009530580219973</v>
       </c>
       <c r="G9">
-        <v>0.2889715211313941</v>
+        <v>0.2726280980152112</v>
       </c>
       <c r="H9">
-        <v>0.003621707379669103</v>
+        <v>0.002534226024048403</v>
       </c>
       <c r="I9">
-        <v>0.01171445713718633</v>
+        <v>0.008177163272462096</v>
       </c>
       <c r="J9">
-        <v>0.237667729943432</v>
+        <v>0.2611264696171034</v>
       </c>
       <c r="K9">
-        <v>0.3967880807080348</v>
+        <v>0.3472441209052946</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1454210585095961</v>
       </c>
       <c r="M9">
-        <v>1.515236009267255</v>
+        <v>0.1158102734100233</v>
       </c>
       <c r="N9">
-        <v>0.240005288319395</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.229083049102293</v>
+        <v>1.530856998976645</v>
       </c>
       <c r="P9">
-        <v>0.8769249216819404</v>
+        <v>0.2564281550665157</v>
       </c>
       <c r="Q9">
-        <v>1.060279473428082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2228092993549531</v>
+      </c>
+      <c r="R9">
+        <v>0.8533278389327066</v>
+      </c>
+      <c r="S9">
+        <v>1.019794843260499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.953695984662744</v>
+        <v>0.8606255765742219</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1047602808887973</v>
+        <v>0.1085095819058068</v>
       </c>
       <c r="E10">
-        <v>0.1762493562554672</v>
+        <v>0.1575207596141692</v>
       </c>
       <c r="F10">
-        <v>0.4583401510772518</v>
+        <v>0.4381930242592702</v>
       </c>
       <c r="G10">
-        <v>0.3165880663626126</v>
+        <v>0.3148545417814859</v>
       </c>
       <c r="H10">
-        <v>0.002331760445861253</v>
+        <v>0.001595193573389331</v>
       </c>
       <c r="I10">
-        <v>0.009441397255157469</v>
+        <v>0.006701898791686034</v>
       </c>
       <c r="J10">
-        <v>0.2441235397359378</v>
+        <v>0.2469055170228458</v>
       </c>
       <c r="K10">
-        <v>0.3837712529615871</v>
+        <v>0.3326849254545472</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1369300529943391</v>
       </c>
       <c r="M10">
-        <v>1.774193892508521</v>
+        <v>0.1144500224861851</v>
       </c>
       <c r="N10">
-        <v>0.2723933643261773</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2626684275794311</v>
+        <v>1.793760313801329</v>
       </c>
       <c r="P10">
-        <v>0.8438594445503149</v>
+        <v>0.2911504125096087</v>
       </c>
       <c r="Q10">
-        <v>1.132754968394238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2546543498574785</v>
+      </c>
+      <c r="R10">
+        <v>0.8289153734879307</v>
+      </c>
+      <c r="S10">
+        <v>1.071740177247563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8967447107444855</v>
+        <v>0.819654053998903</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.118066749626152</v>
+        <v>0.1233661622654267</v>
       </c>
       <c r="E11">
-        <v>0.1768793976698664</v>
+        <v>0.1614625463401502</v>
       </c>
       <c r="F11">
-        <v>0.445973219937656</v>
+        <v>0.4198805354373221</v>
       </c>
       <c r="G11">
-        <v>0.2979975716231991</v>
+        <v>0.3308767359539502</v>
       </c>
       <c r="H11">
-        <v>0.02110990688615644</v>
+        <v>0.02036167146550483</v>
       </c>
       <c r="I11">
-        <v>0.009667499124264012</v>
+        <v>0.007169062694035055</v>
       </c>
       <c r="J11">
-        <v>0.2311452433513779</v>
+        <v>0.2011398547712773</v>
       </c>
       <c r="K11">
-        <v>0.3462583250052784</v>
+        <v>0.3021369363557529</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1256983788316948</v>
       </c>
       <c r="M11">
-        <v>1.975088260084107</v>
+        <v>0.1036628590405932</v>
       </c>
       <c r="N11">
-        <v>0.1968448688113824</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2238946688194616</v>
+        <v>1.971945740988332</v>
       </c>
       <c r="P11">
-        <v>0.8563329298121118</v>
+        <v>0.2090723018519327</v>
       </c>
       <c r="Q11">
-        <v>1.066344631790059</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2171593009674737</v>
+      </c>
+      <c r="R11">
+        <v>0.8511099074178858</v>
+      </c>
+      <c r="S11">
+        <v>0.9889869444458128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8297202604940992</v>
+        <v>0.7677830670296544</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1260271785518512</v>
+        <v>0.1319127631288382</v>
       </c>
       <c r="E12">
-        <v>0.1900468167340392</v>
+        <v>0.1757296338675172</v>
       </c>
       <c r="F12">
-        <v>0.426924108616916</v>
+        <v>0.3997366063191166</v>
       </c>
       <c r="G12">
-        <v>0.2775918668059347</v>
+        <v>0.3266221711862016</v>
       </c>
       <c r="H12">
-        <v>0.06003213688196496</v>
+        <v>0.0592456894034612</v>
       </c>
       <c r="I12">
-        <v>0.009740226726416168</v>
+        <v>0.007229636215530633</v>
       </c>
       <c r="J12">
-        <v>0.2192876934155024</v>
+        <v>0.1795118292406599</v>
       </c>
       <c r="K12">
-        <v>0.3232560852544548</v>
+        <v>0.284755149400814</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1202672767785402</v>
       </c>
       <c r="M12">
-        <v>2.089767047403114</v>
+        <v>0.09643293729107594</v>
       </c>
       <c r="N12">
-        <v>0.1359966254130569</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.1875049690496873</v>
+        <v>2.069948813889766</v>
       </c>
       <c r="P12">
-        <v>0.8809862477187664</v>
+        <v>0.1437054152919188</v>
       </c>
       <c r="Q12">
-        <v>0.9983240233507615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.182151841571276</v>
+      </c>
+      <c r="R12">
+        <v>0.8803973340514801</v>
+      </c>
+      <c r="S12">
+        <v>0.9190705001634711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7454157461725117</v>
+        <v>0.6989405294440871</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1304251182189944</v>
+        <v>0.1357468323825657</v>
       </c>
       <c r="E13">
-        <v>0.2127666595853661</v>
+        <v>0.1985837988786585</v>
       </c>
       <c r="F13">
-        <v>0.4004227951100674</v>
+        <v>0.3772830243159859</v>
       </c>
       <c r="G13">
-        <v>0.2534764292684173</v>
+        <v>0.2989023278300209</v>
       </c>
       <c r="H13">
-        <v>0.1161089330735763</v>
+        <v>0.1152486667163544</v>
       </c>
       <c r="I13">
-        <v>0.01015295670980088</v>
+        <v>0.007494835319119098</v>
       </c>
       <c r="J13">
-        <v>0.206992517353747</v>
+        <v>0.1751665007759158</v>
       </c>
       <c r="K13">
-        <v>0.3081828199743377</v>
+        <v>0.2745667789388917</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1175580661008689</v>
       </c>
       <c r="M13">
-        <v>2.147594527795349</v>
+        <v>0.09134409187600845</v>
       </c>
       <c r="N13">
-        <v>0.08440360883355424</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.150467772751643</v>
+        <v>2.118736767987883</v>
       </c>
       <c r="P13">
-        <v>0.9158136733518063</v>
+        <v>0.08893442421518927</v>
       </c>
       <c r="Q13">
-        <v>0.9214427383080164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1466689550117515</v>
+      </c>
+      <c r="R13">
+        <v>0.9144315879983793</v>
+      </c>
+      <c r="S13">
+        <v>0.8551576916062515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6783223252412256</v>
+        <v>0.6426465153894299</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1319243343458112</v>
+        <v>0.1363144735620097</v>
       </c>
       <c r="E14">
-        <v>0.2345569815549915</v>
+        <v>0.2200842754233783</v>
       </c>
       <c r="F14">
-        <v>0.3784402499485395</v>
+        <v>0.3602187960569054</v>
       </c>
       <c r="G14">
-        <v>0.2349075952110411</v>
+        <v>0.2699704371176637</v>
       </c>
       <c r="H14">
-        <v>0.1657091140419027</v>
+        <v>0.1647807990888168</v>
       </c>
       <c r="I14">
-        <v>0.01069742604414703</v>
+        <v>0.007886710020740928</v>
       </c>
       <c r="J14">
-        <v>0.1981594903236328</v>
+        <v>0.178682431701219</v>
       </c>
       <c r="K14">
-        <v>0.3016227792901591</v>
+        <v>0.2707016309799775</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1166696038617625</v>
       </c>
       <c r="M14">
-        <v>2.163135562633528</v>
+        <v>0.08898905138406876</v>
       </c>
       <c r="N14">
-        <v>0.05436378441662981</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1247870595754783</v>
+        <v>2.131395135982757</v>
       </c>
       <c r="P14">
-        <v>0.9456007404904128</v>
+        <v>0.0572730785540756</v>
       </c>
       <c r="Q14">
-        <v>0.863536700306355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1220842550215941</v>
+      </c>
+      <c r="R14">
+        <v>0.940573224324126</v>
+      </c>
+      <c r="S14">
+        <v>0.8121007809816092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6569627002013192</v>
+        <v>0.6241287535845288</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1315301791043311</v>
+        <v>0.1354671284186963</v>
       </c>
       <c r="E15">
-        <v>0.240309758729822</v>
+        <v>0.2258181609240673</v>
       </c>
       <c r="F15">
-        <v>0.3713242769756278</v>
+        <v>0.3552045370841768</v>
       </c>
       <c r="G15">
-        <v>0.2293849676794011</v>
+        <v>0.2587369283194647</v>
       </c>
       <c r="H15">
-        <v>0.1783307139029517</v>
+        <v>0.1773707588994711</v>
       </c>
       <c r="I15">
-        <v>0.011052556856189</v>
+        <v>0.008191705684668982</v>
       </c>
       <c r="J15">
-        <v>0.1958158148315903</v>
+        <v>0.1824281514790727</v>
       </c>
       <c r="K15">
-        <v>0.3010174205841483</v>
+        <v>0.2706243939074848</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1166669422407831</v>
       </c>
       <c r="M15">
-        <v>2.15528550140283</v>
+        <v>0.0887451089880229</v>
       </c>
       <c r="N15">
-        <v>0.04778039379758781</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1179927129244334</v>
+        <v>2.124378009703122</v>
       </c>
       <c r="P15">
-        <v>0.9543435423476936</v>
+        <v>0.05039897195474907</v>
       </c>
       <c r="Q15">
-        <v>0.8468926600755253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1155961972006203</v>
+      </c>
+      <c r="R15">
+        <v>0.9473156988504812</v>
+      </c>
+      <c r="S15">
+        <v>0.8015970582722076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6197911548549087</v>
+        <v>0.5889068055458324</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1236069434810219</v>
+        <v>0.1257372555281648</v>
       </c>
       <c r="E16">
-        <v>0.2328514873216712</v>
+        <v>0.2193609623022148</v>
       </c>
       <c r="F16">
-        <v>0.3571082584552911</v>
+        <v>0.3484715659503692</v>
       </c>
       <c r="G16">
-        <v>0.2219179962327615</v>
+        <v>0.2252843763245522</v>
       </c>
       <c r="H16">
-        <v>0.1661822789365885</v>
+        <v>0.1650561821443119</v>
       </c>
       <c r="I16">
-        <v>0.01214826137074621</v>
+        <v>0.008981905596222362</v>
       </c>
       <c r="J16">
-        <v>0.1951762316270802</v>
+        <v>0.2095698569229896</v>
       </c>
       <c r="K16">
-        <v>0.3086841777877618</v>
+        <v>0.2777249272966937</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1184466909794631</v>
       </c>
       <c r="M16">
-        <v>2.030949067652415</v>
+        <v>0.09140936092886642</v>
       </c>
       <c r="N16">
-        <v>0.04605742278069158</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1119336802985096</v>
+        <v>2.01301593389411</v>
       </c>
       <c r="P16">
-        <v>0.9583916826813521</v>
+        <v>0.04914970737867463</v>
       </c>
       <c r="Q16">
-        <v>0.8295508303632744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1099865969143288</v>
+      </c>
+      <c r="R16">
+        <v>0.9431880261356511</v>
+      </c>
+      <c r="S16">
+        <v>0.8053813973426003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.626168083588226</v>
+        <v>0.5914255191704001</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.116759205559319</v>
+        <v>0.1182696062852102</v>
       </c>
       <c r="E17">
-        <v>0.2145522221055742</v>
+        <v>0.2016517788219296</v>
       </c>
       <c r="F17">
-        <v>0.357959437041572</v>
+        <v>0.3516442048620974</v>
       </c>
       <c r="G17">
-        <v>0.2260727666579356</v>
+        <v>0.2181259006672889</v>
       </c>
       <c r="H17">
-        <v>0.1287209447671387</v>
+        <v>0.1275032166949899</v>
       </c>
       <c r="I17">
-        <v>0.01272556635540489</v>
+        <v>0.009410014550936374</v>
       </c>
       <c r="J17">
-        <v>0.1994174246204778</v>
+        <v>0.2265013503297411</v>
       </c>
       <c r="K17">
-        <v>0.3177318872839221</v>
+        <v>0.2852773390835242</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1207343616841738</v>
       </c>
       <c r="M17">
-        <v>1.927758036559908</v>
+        <v>0.09439235645852184</v>
       </c>
       <c r="N17">
-        <v>0.05953803557277837</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1204640778333719</v>
+        <v>1.918822493464859</v>
       </c>
       <c r="P17">
-        <v>0.9457326185096946</v>
+        <v>0.06378039514535061</v>
       </c>
       <c r="Q17">
-        <v>0.8471305150981294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1183193645388734</v>
+      </c>
+      <c r="R17">
+        <v>0.9276678153864779</v>
+      </c>
+      <c r="S17">
+        <v>0.8292751696885716</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6748013480316502</v>
+        <v>0.6299767009905395</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1100513846190836</v>
+        <v>0.1115518451882025</v>
       </c>
       <c r="E18">
-        <v>0.1907785193520706</v>
+        <v>0.1778674163559302</v>
       </c>
       <c r="F18">
-        <v>0.3722696936916705</v>
+        <v>0.365476215181161</v>
       </c>
       <c r="G18">
-        <v>0.2412795964275034</v>
+        <v>0.2271874744120694</v>
       </c>
       <c r="H18">
-        <v>0.07589187358586003</v>
+        <v>0.07466465398264432</v>
       </c>
       <c r="I18">
-        <v>0.01252602746708664</v>
+        <v>0.00914827659228834</v>
       </c>
       <c r="J18">
-        <v>0.2085879385435589</v>
+        <v>0.2406404935507638</v>
       </c>
       <c r="K18">
-        <v>0.3315501349160783</v>
+        <v>0.2961713981830547</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1245969458460436</v>
       </c>
       <c r="M18">
-        <v>1.829915559927969</v>
+        <v>0.09855177170184781</v>
       </c>
       <c r="N18">
-        <v>0.0928702400525907</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1443274894240716</v>
+        <v>1.830480719391716</v>
       </c>
       <c r="P18">
-        <v>0.9198356452197345</v>
+        <v>0.0995297851562853</v>
       </c>
       <c r="Q18">
-        <v>0.8985075198105648</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1413612422907526</v>
+      </c>
+      <c r="R18">
+        <v>0.9014677269271587</v>
+      </c>
+      <c r="S18">
+        <v>0.8788086876460852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7496749109943153</v>
+        <v>0.6900839308277966</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1043076161776213</v>
+        <v>0.1061200301633107</v>
       </c>
       <c r="E19">
-        <v>0.1741629922151624</v>
+        <v>0.1600003691877223</v>
       </c>
       <c r="F19">
-        <v>0.3953382872830389</v>
+        <v>0.3864010556017092</v>
       </c>
       <c r="G19">
-        <v>0.2636017914054634</v>
+        <v>0.2458217583859081</v>
       </c>
       <c r="H19">
-        <v>0.03022844859006568</v>
+        <v>0.02908574631997141</v>
       </c>
       <c r="I19">
-        <v>0.0122968963794019</v>
+        <v>0.009046161342720183</v>
       </c>
       <c r="J19">
-        <v>0.2206133571613975</v>
+        <v>0.2531770173187056</v>
       </c>
       <c r="K19">
-        <v>0.3504895150697429</v>
+        <v>0.3105669542849494</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1299802155165413</v>
       </c>
       <c r="M19">
-        <v>1.750614634149002</v>
+        <v>0.1039655622422435</v>
       </c>
       <c r="N19">
-        <v>0.1492602246259693</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.1808181232623163</v>
+        <v>1.761073831020099</v>
       </c>
       <c r="P19">
-        <v>0.8921412533777726</v>
+        <v>0.159840987225067</v>
       </c>
       <c r="Q19">
-        <v>0.9709907035708341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.1764767469318649</v>
+      </c>
+      <c r="R19">
+        <v>0.8739912707179514</v>
+      </c>
+      <c r="S19">
+        <v>0.9444540695494084</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9078820125955076</v>
+        <v>0.8196713151310178</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1009212805664674</v>
+        <v>0.1038401931084394</v>
       </c>
       <c r="E20">
-        <v>0.1745401860220723</v>
+        <v>0.156032309617071</v>
       </c>
       <c r="F20">
-        <v>0.4443379340477094</v>
+        <v>0.4285535162789245</v>
       </c>
       <c r="G20">
-        <v>0.3070531953068922</v>
+        <v>0.2926206664391486</v>
       </c>
       <c r="H20">
-        <v>0.002629491910551174</v>
+        <v>0.001798302625583226</v>
       </c>
       <c r="I20">
-        <v>0.01092407585343214</v>
+        <v>0.008116735004872311</v>
       </c>
       <c r="J20">
-        <v>0.241224626030089</v>
+        <v>0.2611580991596654</v>
       </c>
       <c r="K20">
-        <v>0.3838155321112708</v>
+        <v>0.3342001499265663</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1382328001067084</v>
       </c>
       <c r="M20">
-        <v>1.714597717340922</v>
+        <v>0.1138377688732106</v>
       </c>
       <c r="N20">
-        <v>0.2658704335898818</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2524505896618301</v>
+        <v>1.737315323768001</v>
       </c>
       <c r="P20">
-        <v>0.8537593891249529</v>
+        <v>0.2844173576670244</v>
       </c>
       <c r="Q20">
-        <v>1.106365713279217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2450753743287102</v>
+      </c>
+      <c r="R20">
+        <v>0.8362175784246233</v>
+      </c>
+      <c r="S20">
+        <v>1.05847456776992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02624882085081</v>
+        <v>0.9241206140693237</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1121840462149208</v>
+        <v>0.1186422122478348</v>
       </c>
       <c r="E21">
-        <v>0.1799049494800555</v>
+        <v>0.1605447705346328</v>
       </c>
       <c r="F21">
-        <v>0.4852844752446401</v>
+        <v>0.4508736912131681</v>
       </c>
       <c r="G21">
-        <v>0.3348877896421811</v>
+        <v>0.3812622477934298</v>
       </c>
       <c r="H21">
-        <v>0.001438578574664451</v>
+        <v>0.0008942423085710471</v>
       </c>
       <c r="I21">
-        <v>0.009102211543374317</v>
+        <v>0.006903884271111771</v>
       </c>
       <c r="J21">
-        <v>0.2496671020660841</v>
+        <v>0.1997339604987971</v>
       </c>
       <c r="K21">
-        <v>0.3807955860364629</v>
+        <v>0.3259044596214231</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1332020102227336</v>
       </c>
       <c r="M21">
-        <v>1.898650103530116</v>
+        <v>0.1142237630113971</v>
       </c>
       <c r="N21">
-        <v>0.3081915937940636</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.2882761121871198</v>
+        <v>1.90270846726861</v>
       </c>
       <c r="P21">
-        <v>0.8258815996831146</v>
+        <v>0.3271908692183558</v>
       </c>
       <c r="Q21">
-        <v>1.18335852502247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.278573825047296</v>
+      </c>
+      <c r="R21">
+        <v>0.8183046708383444</v>
+      </c>
+      <c r="S21">
+        <v>1.079370849066919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.101779396745798</v>
+        <v>0.9914488102951395</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.11974678460777</v>
+        <v>0.1287671893717572</v>
       </c>
       <c r="E22">
-        <v>0.1829664993546851</v>
+        <v>0.1633601409127317</v>
       </c>
       <c r="F22">
-        <v>0.5115728971841591</v>
+        <v>0.463907888092713</v>
       </c>
       <c r="G22">
-        <v>0.3525393553811256</v>
+        <v>0.4471196293922475</v>
       </c>
       <c r="H22">
-        <v>0.0009411509694632336</v>
+        <v>0.0005449255760466842</v>
       </c>
       <c r="I22">
-        <v>0.007743100315233065</v>
+        <v>0.005835948725708029</v>
       </c>
       <c r="J22">
-        <v>0.2549599861062291</v>
+        <v>0.1656140407130309</v>
       </c>
       <c r="K22">
-        <v>0.3782813608542455</v>
+        <v>0.3199704003955652</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1299179492258888</v>
       </c>
       <c r="M22">
-        <v>2.020331976131644</v>
+        <v>0.114511425253415</v>
       </c>
       <c r="N22">
-        <v>0.3290747046330154</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3088800551864352</v>
+        <v>2.009552859047744</v>
       </c>
       <c r="P22">
-        <v>0.808819212745842</v>
+        <v>0.3477456220470572</v>
       </c>
       <c r="Q22">
-        <v>1.232055781885919</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.2976882768105256</v>
+      </c>
+      <c r="R22">
+        <v>0.8084108553771827</v>
+      </c>
+      <c r="S22">
+        <v>1.088320099762313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.066164709196812</v>
+        <v>0.9594645104160691</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1155754415361088</v>
+        <v>0.1228880218348252</v>
       </c>
       <c r="E23">
-        <v>0.1815458743903497</v>
+        <v>0.1619846890010408</v>
       </c>
       <c r="F23">
-        <v>0.4982682158909952</v>
+        <v>0.459379962077854</v>
       </c>
       <c r="G23">
-        <v>0.343827946627556</v>
+        <v>0.404806030799449</v>
       </c>
       <c r="H23">
-        <v>0.001188353954889476</v>
+        <v>0.0007152019418588118</v>
       </c>
       <c r="I23">
-        <v>0.008101465372200245</v>
+        <v>0.005982092055843324</v>
       </c>
       <c r="J23">
-        <v>0.2524984593052579</v>
+        <v>0.1888983474555488</v>
       </c>
       <c r="K23">
-        <v>0.3808062441987232</v>
+        <v>0.3243997525068032</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1320447961656779</v>
       </c>
       <c r="M23">
-        <v>1.952264634804493</v>
+        <v>0.1148953801562218</v>
       </c>
       <c r="N23">
-        <v>0.3169518982611237</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.2983296401427964</v>
+        <v>1.952849143942359</v>
       </c>
       <c r="P23">
-        <v>0.817316979788508</v>
+        <v>0.3361956650078071</v>
       </c>
       <c r="Q23">
-        <v>1.208330660718843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.2879814821931674</v>
+      </c>
+      <c r="R23">
+        <v>0.8122818399483123</v>
+      </c>
+      <c r="S23">
+        <v>1.090888463394521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9229572319493968</v>
+        <v>0.8323889167880623</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1000258188652694</v>
+        <v>0.1029556076700686</v>
       </c>
       <c r="E24">
-        <v>0.1757891202999109</v>
+        <v>0.1567628154801326</v>
       </c>
       <c r="F24">
-        <v>0.4477958401728657</v>
+        <v>0.4317904325693078</v>
       </c>
       <c r="G24">
-        <v>0.3105819015449214</v>
+        <v>0.2953219679521624</v>
       </c>
       <c r="H24">
-        <v>0.002428977312403435</v>
+        <v>0.00161410598349887</v>
       </c>
       <c r="I24">
-        <v>0.01031252833360696</v>
+        <v>0.007425895513828884</v>
       </c>
       <c r="J24">
-        <v>0.2431330232198121</v>
+        <v>0.2635036071098042</v>
       </c>
       <c r="K24">
-        <v>0.3887859089788073</v>
+        <v>0.3381067977215313</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1396881524308178</v>
       </c>
       <c r="M24">
-        <v>1.70000034259931</v>
+        <v>0.1153072416321166</v>
       </c>
       <c r="N24">
-        <v>0.2728267686279935</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2575996829261591</v>
+        <v>1.723872399231198</v>
       </c>
       <c r="P24">
-        <v>0.851685366030015</v>
+        <v>0.2920083312279758</v>
       </c>
       <c r="Q24">
-        <v>1.117837930923912</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2500027007722565</v>
+      </c>
+      <c r="R24">
+        <v>0.8335129991720223</v>
+      </c>
+      <c r="S24">
+        <v>1.069165191395456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7671803908767458</v>
+        <v>0.696903473723097</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0832926892863739</v>
+        <v>0.08515508183960918</v>
       </c>
       <c r="E25">
-        <v>0.1694789437607751</v>
+        <v>0.1511476178967988</v>
       </c>
       <c r="F25">
-        <v>0.3956547367660761</v>
+        <v>0.38475090138936</v>
       </c>
       <c r="G25">
-        <v>0.2766046440560572</v>
+        <v>0.2570113574564061</v>
       </c>
       <c r="H25">
-        <v>0.004359230048768759</v>
+        <v>0.003111015392188776</v>
       </c>
       <c r="I25">
-        <v>0.01331693979708426</v>
+        <v>0.009529837675710695</v>
       </c>
       <c r="J25">
-        <v>0.2342110446559715</v>
+        <v>0.263165717073484</v>
       </c>
       <c r="K25">
-        <v>0.3981839846096218</v>
+        <v>0.3498050561560735</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.147615610553947</v>
       </c>
       <c r="M25">
-        <v>1.428441880896685</v>
+        <v>0.1155913622429541</v>
       </c>
       <c r="N25">
-        <v>0.2255860062999062</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2135661492612293</v>
+        <v>1.441206344132354</v>
       </c>
       <c r="P25">
-        <v>0.8912867989380153</v>
+        <v>0.2407636342317545</v>
       </c>
       <c r="Q25">
-        <v>1.026665849033279</v>
+        <v>0.2080353486257458</v>
+      </c>
+      <c r="R25">
+        <v>0.8651049668532451</v>
+      </c>
+      <c r="S25">
+        <v>0.9929129262196881</v>
       </c>
     </row>
   </sheetData>
